--- a/类信贷测算/【东吴银行马婷婷】上市银行信贷类非标投资资产计提测算final-V2.xlsx
+++ b/类信贷测算/【东吴银行马婷婷】上市银行信贷类非标投资资产计提测算final-V2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="output2" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="242">
   <si>
     <t>-</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2514,6 +2514,86 @@
   </si>
   <si>
     <t>3）不同类型银行的“占比*”如下：国有大行20%；股份行65%；城商行40%；农商行40%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>股份制银行敏感性分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>按</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>65%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>比例测算对净利润影响</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信贷类资产在信托、资管等及其他类非标资产所占比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招行、中信、兴业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴业银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类信贷余额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际减值准备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷款减值准备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷款总额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拨贷比</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2528,7 +2608,7 @@
     <numFmt numFmtId="179" formatCode="0.0000"/>
     <numFmt numFmtId="180" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2617,6 +2697,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -2650,7 +2737,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -2795,6 +2882,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2803,7 +2927,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="202">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -3071,9 +3195,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3083,9 +3204,6 @@
     <xf numFmtId="176" fontId="3" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="4" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="4" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3115,6 +3233,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3151,8 +3282,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3169,13 +3318,43 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="百分比" xfId="2" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3342,6 +3521,7 @@
       <definedName name="s_stm07_is"/>
       <definedName name="s_stmnote_bank"/>
       <definedName name="s_stmnote_bank_1n"/>
+      <definedName name="s_stmnote_bank_22n"/>
       <definedName name="to_tradecode"/>
     </definedNames>
     <sheetDataSet>
@@ -3354,28 +3534,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:B7" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:B7" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A3:B7">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" name="假设：类信贷非标资产占“资管、信托或其他非标资产”的比重" dataDxfId="5"/>
-    <tableColumn id="2" name=" " dataDxfId="4"/>
+    <tableColumn id="1" name="假设：类信贷非标资产占“资管、信托或其他非标资产”的比重" dataDxfId="6"/>
+    <tableColumn id="2" name=" " dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="D3:E8" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="D3:E8" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="D3:E8">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" name="分类" dataDxfId="1"/>
-    <tableColumn id="2" name="不良贷款拨备计提指导标准" dataDxfId="0"/>
+    <tableColumn id="1" name="分类" dataDxfId="2"/>
+    <tableColumn id="2" name="不良贷款拨备计提指导标准" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3649,8 +3829,8 @@
   </sheetPr>
   <dimension ref="B1:J39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -3703,18 +3883,18 @@
       <c r="B8" s="76"/>
       <c r="C8" s="76"/>
       <c r="D8" s="101"/>
-      <c r="E8" s="159" t="str">
+      <c r="E8" s="170" t="str">
         <f>非标类信贷!P15</f>
         <v>类信贷非标投资测算计提加总</v>
       </c>
-      <c r="F8" s="161" t="s">
+      <c r="F8" s="172" t="s">
         <v>221</v>
       </c>
-      <c r="G8" s="163" t="s">
+      <c r="G8" s="174" t="s">
         <v>222</v>
       </c>
       <c r="H8" s="101"/>
-      <c r="I8" s="165" t="s">
+      <c r="I8" s="176" t="s">
         <v>218</v>
       </c>
     </row>
@@ -3722,25 +3902,25 @@
       <c r="B9" s="111" t="s">
         <v>208</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="150" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="151" t="s">
+      <c r="D9" s="149" t="s">
         <v>224</v>
       </c>
-      <c r="E9" s="160"/>
-      <c r="F9" s="162"/>
-      <c r="G9" s="164"/>
-      <c r="H9" s="143" t="s">
+      <c r="E9" s="171"/>
+      <c r="F9" s="173"/>
+      <c r="G9" s="175"/>
+      <c r="H9" s="141" t="s">
         <v>219</v>
       </c>
-      <c r="I9" s="166"/>
+      <c r="I9" s="177"/>
     </row>
     <row r="10" spans="2:10" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B10" s="167" t="s">
+      <c r="B10" s="178" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="153" t="s">
+      <c r="C10" s="151" t="s">
         <v>42</v>
       </c>
       <c r="D10" s="82">
@@ -3767,11 +3947,11 @@
         <f>非标类信贷!X16</f>
         <v>-2.4776324329945734E-3</v>
       </c>
-      <c r="J10" s="155"/>
+      <c r="J10" s="153"/>
     </row>
     <row r="11" spans="2:10" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B11" s="157"/>
-      <c r="C11" s="153" t="s">
+      <c r="B11" s="168"/>
+      <c r="C11" s="151" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="13">
@@ -3798,11 +3978,11 @@
         <f>非标类信贷!X17</f>
         <v>0</v>
       </c>
-      <c r="J11" s="155"/>
+      <c r="J11" s="153"/>
     </row>
     <row r="12" spans="2:10" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B12" s="157"/>
-      <c r="C12" s="153" t="s">
+      <c r="B12" s="168"/>
+      <c r="C12" s="151" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="13">
@@ -3829,11 +4009,11 @@
         <f>非标类信贷!X18</f>
         <v>0</v>
       </c>
-      <c r="J12" s="155"/>
+      <c r="J12" s="153"/>
     </row>
     <row r="13" spans="2:10" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B13" s="157"/>
-      <c r="C13" s="153" t="s">
+      <c r="B13" s="168"/>
+      <c r="C13" s="151" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="13">
@@ -3860,11 +4040,11 @@
         <f>非标类信贷!X19</f>
         <v>0</v>
       </c>
-      <c r="J13" s="155"/>
+      <c r="J13" s="153"/>
     </row>
     <row r="14" spans="2:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="158"/>
-      <c r="C14" s="154" t="s">
+      <c r="B14" s="169"/>
+      <c r="C14" s="152" t="s">
         <v>17</v>
       </c>
       <c r="D14" s="75">
@@ -3891,10 +4071,10 @@
         <f>非标类信贷!X20</f>
         <v>0</v>
       </c>
-      <c r="J14" s="155"/>
+      <c r="J14" s="153"/>
     </row>
     <row r="15" spans="2:10" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B15" s="167" t="s">
+      <c r="B15" s="178" t="s">
         <v>39</v>
       </c>
       <c r="C15" s="76" t="s">
@@ -3924,11 +4104,11 @@
         <f>非标类信贷!X21</f>
         <v>-3.611628830925874E-2</v>
       </c>
-      <c r="J15" s="155"/>
+      <c r="J15" s="153"/>
     </row>
     <row r="16" spans="2:10" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B16" s="157"/>
-      <c r="C16" s="153" t="s">
+      <c r="B16" s="168"/>
+      <c r="C16" s="151" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="13">
@@ -3955,11 +4135,11 @@
         <f>非标类信贷!X22</f>
         <v>-9.1242388358064863E-2</v>
       </c>
-      <c r="J16" s="155"/>
+      <c r="J16" s="153"/>
     </row>
     <row r="17" spans="2:10" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B17" s="157"/>
-      <c r="C17" s="153" t="s">
+      <c r="B17" s="168"/>
+      <c r="C17" s="151" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="13">
@@ -3986,11 +4166,11 @@
         <f>非标类信贷!X23</f>
         <v>-9.0016495963045687E-2</v>
       </c>
-      <c r="J17" s="155"/>
+      <c r="J17" s="153"/>
     </row>
     <row r="18" spans="2:10" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B18" s="157"/>
-      <c r="C18" s="153" t="s">
+      <c r="B18" s="168"/>
+      <c r="C18" s="151" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="13">
@@ -4017,11 +4197,11 @@
         <f>非标类信贷!X24</f>
         <v>-0.22603778688670315</v>
       </c>
-      <c r="J18" s="155"/>
+      <c r="J18" s="153"/>
     </row>
     <row r="19" spans="2:10" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B19" s="157"/>
-      <c r="C19" s="153" t="s">
+      <c r="B19" s="168"/>
+      <c r="C19" s="151" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="13">
@@ -4048,11 +4228,11 @@
         <f>非标类信贷!X25</f>
         <v>-9.931304575433722E-2</v>
       </c>
-      <c r="J19" s="155"/>
+      <c r="J19" s="153"/>
     </row>
     <row r="20" spans="2:10" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B20" s="157"/>
-      <c r="C20" s="153" t="s">
+      <c r="B20" s="168"/>
+      <c r="C20" s="151" t="s">
         <v>23</v>
       </c>
       <c r="D20" s="13">
@@ -4079,11 +4259,11 @@
         <f>非标类信贷!X26</f>
         <v>-0.16577044911857697</v>
       </c>
-      <c r="J20" s="155"/>
+      <c r="J20" s="153"/>
     </row>
     <row r="21" spans="2:10" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B21" s="157"/>
-      <c r="C21" s="153" t="s">
+      <c r="B21" s="168"/>
+      <c r="C21" s="151" t="s">
         <v>24</v>
       </c>
       <c r="D21" s="13">
@@ -4110,11 +4290,11 @@
         <f>非标类信贷!X27</f>
         <v>-6.7104469582727588E-2</v>
       </c>
-      <c r="J21" s="155"/>
+      <c r="J21" s="153"/>
     </row>
     <row r="22" spans="2:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="158"/>
-      <c r="C22" s="154" t="s">
+      <c r="B22" s="169"/>
+      <c r="C22" s="152" t="s">
         <v>25</v>
       </c>
       <c r="D22" s="75">
@@ -4141,10 +4321,10 @@
         <f>非标类信贷!X28</f>
         <v>-0.14926056864419829</v>
       </c>
-      <c r="J22" s="155"/>
+      <c r="J22" s="153"/>
     </row>
     <row r="23" spans="2:10" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B23" s="168" t="s">
+      <c r="B23" s="179" t="s">
         <v>52</v>
       </c>
       <c r="C23" s="76" t="s">
@@ -4174,11 +4354,11 @@
         <f>非标类信贷!X29</f>
         <v>0</v>
       </c>
-      <c r="J23" s="155"/>
+      <c r="J23" s="153"/>
     </row>
     <row r="24" spans="2:10" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B24" s="157"/>
-      <c r="C24" s="153" t="s">
+      <c r="B24" s="168"/>
+      <c r="C24" s="151" t="s">
         <v>27</v>
       </c>
       <c r="D24" s="13">
@@ -4205,11 +4385,11 @@
         <f>非标类信贷!X30</f>
         <v>0</v>
       </c>
-      <c r="J24" s="155"/>
+      <c r="J24" s="153"/>
     </row>
     <row r="25" spans="2:10" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B25" s="157"/>
-      <c r="C25" s="153" t="s">
+      <c r="B25" s="168"/>
+      <c r="C25" s="151" t="s">
         <v>28</v>
       </c>
       <c r="D25" s="13">
@@ -4236,11 +4416,11 @@
         <f>非标类信贷!X31</f>
         <v>-5.669083488838185E-2</v>
       </c>
-      <c r="J25" s="155"/>
+      <c r="J25" s="153"/>
     </row>
     <row r="26" spans="2:10" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B26" s="157"/>
-      <c r="C26" s="153" t="s">
+      <c r="B26" s="168"/>
+      <c r="C26" s="151" t="s">
         <v>29</v>
       </c>
       <c r="D26" s="13">
@@ -4267,11 +4447,11 @@
         <f>非标类信贷!X32</f>
         <v>0</v>
       </c>
-      <c r="J26" s="155"/>
+      <c r="J26" s="153"/>
     </row>
     <row r="27" spans="2:10" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B27" s="157"/>
-      <c r="C27" s="153" t="s">
+      <c r="B27" s="168"/>
+      <c r="C27" s="151" t="s">
         <v>30</v>
       </c>
       <c r="D27" s="13">
@@ -4298,11 +4478,11 @@
         <f>非标类信贷!X33</f>
         <v>0</v>
       </c>
-      <c r="J27" s="155"/>
+      <c r="J27" s="153"/>
     </row>
     <row r="28" spans="2:10" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B28" s="157"/>
-      <c r="C28" s="153" t="s">
+      <c r="B28" s="168"/>
+      <c r="C28" s="151" t="s">
         <v>31</v>
       </c>
       <c r="D28" s="13">
@@ -4329,11 +4509,11 @@
         <f>非标类信贷!X34</f>
         <v>-9.8199017518691409E-2</v>
       </c>
-      <c r="J28" s="155"/>
+      <c r="J28" s="153"/>
     </row>
     <row r="29" spans="2:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="158"/>
-      <c r="C29" s="154" t="s">
+      <c r="B29" s="169"/>
+      <c r="C29" s="152" t="s">
         <v>32</v>
       </c>
       <c r="D29" s="75">
@@ -4360,10 +4540,10 @@
         <f>非标类信贷!X35</f>
         <v>0</v>
       </c>
-      <c r="J29" s="155"/>
+      <c r="J29" s="153"/>
     </row>
     <row r="30" spans="2:10" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B30" s="157" t="s">
+      <c r="B30" s="168" t="s">
         <v>10</v>
       </c>
       <c r="C30" s="76" t="s">
@@ -4393,11 +4573,11 @@
         <f>非标类信贷!X36</f>
         <v>0</v>
       </c>
-      <c r="J30" s="155"/>
+      <c r="J30" s="153"/>
     </row>
     <row r="31" spans="2:10" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B31" s="157"/>
-      <c r="C31" s="153" t="s">
+      <c r="B31" s="168"/>
+      <c r="C31" s="151" t="s">
         <v>34</v>
       </c>
       <c r="D31" s="13">
@@ -4424,11 +4604,11 @@
         <f>非标类信贷!X37</f>
         <v>0</v>
       </c>
-      <c r="J31" s="155"/>
+      <c r="J31" s="153"/>
     </row>
     <row r="32" spans="2:10" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B32" s="157"/>
-      <c r="C32" s="153" t="s">
+      <c r="B32" s="168"/>
+      <c r="C32" s="151" t="s">
         <v>35</v>
       </c>
       <c r="D32" s="13">
@@ -4455,11 +4635,11 @@
         <f>非标类信贷!X38</f>
         <v>0</v>
       </c>
-      <c r="J32" s="155"/>
+      <c r="J32" s="153"/>
     </row>
     <row r="33" spans="2:10" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B33" s="157"/>
-      <c r="C33" s="153" t="s">
+      <c r="B33" s="168"/>
+      <c r="C33" s="151" t="s">
         <v>36</v>
       </c>
       <c r="D33" s="13">
@@ -4486,11 +4666,11 @@
         <f>非标类信贷!X39</f>
         <v>0</v>
       </c>
-      <c r="J33" s="155"/>
+      <c r="J33" s="153"/>
     </row>
     <row r="34" spans="2:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="158"/>
-      <c r="C34" s="154" t="s">
+      <c r="B34" s="169"/>
+      <c r="C34" s="152" t="s">
         <v>37</v>
       </c>
       <c r="D34" s="75">
@@ -4517,7 +4697,7 @@
         <f>非标类信贷!X40</f>
         <v>0</v>
       </c>
-      <c r="J34" s="155"/>
+      <c r="J34" s="153"/>
     </row>
     <row r="35" spans="2:10" ht="14.25" x14ac:dyDescent="0.4">
       <c r="B35" s="69" t="s">
@@ -4525,7 +4705,7 @@
       </c>
       <c r="G35" s="115"/>
       <c r="I35" s="10"/>
-      <c r="J35" s="155"/>
+      <c r="J35" s="153"/>
     </row>
     <row r="36" spans="2:10" ht="14.25" x14ac:dyDescent="0.4">
       <c r="B36" s="69" t="s">
@@ -4533,7 +4713,7 @@
       </c>
       <c r="G36" s="115"/>
       <c r="I36" s="10"/>
-      <c r="J36" s="155"/>
+      <c r="J36" s="153"/>
     </row>
     <row r="37" spans="2:10" ht="14.25" x14ac:dyDescent="0.4">
       <c r="B37" s="69" t="s">
@@ -4541,7 +4721,7 @@
       </c>
       <c r="G37" s="115"/>
       <c r="I37" s="10"/>
-      <c r="J37" s="155"/>
+      <c r="J37" s="153"/>
     </row>
     <row r="38" spans="2:10" ht="14.25" x14ac:dyDescent="0.4">
       <c r="B38" s="69" t="s">
@@ -4549,10 +4729,10 @@
       </c>
       <c r="G38" s="115"/>
       <c r="I38" s="10"/>
-      <c r="J38" s="155"/>
+      <c r="J38" s="153"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="G39" s="144"/>
+      <c r="G39" s="142"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4574,8 +4754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K38"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -4656,12 +4836,12 @@
       <c r="G9" s="105" t="s">
         <v>201</v>
       </c>
-      <c r="H9" s="150" t="s">
+      <c r="H9" s="148" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B10" s="167" t="s">
+      <c r="B10" s="178" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="83" t="s">
@@ -4689,7 +4869,7 @@
       </c>
     </row>
     <row r="11" spans="2:8" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B11" s="157"/>
+      <c r="B11" s="168"/>
       <c r="C11" s="83" t="s">
         <v>14</v>
       </c>
@@ -4715,7 +4895,7 @@
       </c>
     </row>
     <row r="12" spans="2:8" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B12" s="157"/>
+      <c r="B12" s="168"/>
       <c r="C12" s="83" t="s">
         <v>15</v>
       </c>
@@ -4741,7 +4921,7 @@
       </c>
     </row>
     <row r="13" spans="2:8" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B13" s="157"/>
+      <c r="B13" s="168"/>
       <c r="C13" s="83" t="s">
         <v>16</v>
       </c>
@@ -4767,7 +4947,7 @@
       </c>
     </row>
     <row r="14" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="158"/>
+      <c r="B14" s="169"/>
       <c r="C14" s="84" t="s">
         <v>17</v>
       </c>
@@ -4793,7 +4973,7 @@
       </c>
     </row>
     <row r="15" spans="2:8" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B15" s="167" t="s">
+      <c r="B15" s="178" t="s">
         <v>39</v>
       </c>
       <c r="C15" s="71" t="s">
@@ -4821,7 +5001,7 @@
       </c>
     </row>
     <row r="16" spans="2:8" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B16" s="157"/>
+      <c r="B16" s="168"/>
       <c r="C16" s="83" t="s">
         <v>19</v>
       </c>
@@ -4847,7 +5027,7 @@
       </c>
     </row>
     <row r="17" spans="2:8" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B17" s="157"/>
+      <c r="B17" s="168"/>
       <c r="C17" s="83" t="s">
         <v>20</v>
       </c>
@@ -4873,7 +5053,7 @@
       </c>
     </row>
     <row r="18" spans="2:8" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B18" s="157"/>
+      <c r="B18" s="168"/>
       <c r="C18" s="83" t="s">
         <v>21</v>
       </c>
@@ -4899,7 +5079,7 @@
       </c>
     </row>
     <row r="19" spans="2:8" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B19" s="157"/>
+      <c r="B19" s="168"/>
       <c r="C19" s="83" t="s">
         <v>22</v>
       </c>
@@ -4925,7 +5105,7 @@
       </c>
     </row>
     <row r="20" spans="2:8" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B20" s="157"/>
+      <c r="B20" s="168"/>
       <c r="C20" s="83" t="s">
         <v>23</v>
       </c>
@@ -4951,7 +5131,7 @@
       </c>
     </row>
     <row r="21" spans="2:8" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B21" s="157"/>
+      <c r="B21" s="168"/>
       <c r="C21" s="83" t="s">
         <v>24</v>
       </c>
@@ -4977,7 +5157,7 @@
       </c>
     </row>
     <row r="22" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="158"/>
+      <c r="B22" s="169"/>
       <c r="C22" s="84" t="s">
         <v>25</v>
       </c>
@@ -5003,7 +5183,7 @@
       </c>
     </row>
     <row r="23" spans="2:8" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B23" s="168" t="s">
+      <c r="B23" s="179" t="s">
         <v>52</v>
       </c>
       <c r="C23" s="71" t="s">
@@ -5031,7 +5211,7 @@
       </c>
     </row>
     <row r="24" spans="2:8" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B24" s="157"/>
+      <c r="B24" s="168"/>
       <c r="C24" s="83" t="s">
         <v>27</v>
       </c>
@@ -5057,7 +5237,7 @@
       </c>
     </row>
     <row r="25" spans="2:8" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B25" s="157"/>
+      <c r="B25" s="168"/>
       <c r="C25" s="83" t="s">
         <v>28</v>
       </c>
@@ -5083,7 +5263,7 @@
       </c>
     </row>
     <row r="26" spans="2:8" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B26" s="157"/>
+      <c r="B26" s="168"/>
       <c r="C26" s="83" t="s">
         <v>29</v>
       </c>
@@ -5109,7 +5289,7 @@
       </c>
     </row>
     <row r="27" spans="2:8" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B27" s="157"/>
+      <c r="B27" s="168"/>
       <c r="C27" s="83" t="s">
         <v>30</v>
       </c>
@@ -5135,7 +5315,7 @@
       </c>
     </row>
     <row r="28" spans="2:8" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B28" s="157"/>
+      <c r="B28" s="168"/>
       <c r="C28" s="83" t="s">
         <v>31</v>
       </c>
@@ -5161,7 +5341,7 @@
       </c>
     </row>
     <row r="29" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="158"/>
+      <c r="B29" s="169"/>
       <c r="C29" s="84" t="s">
         <v>32</v>
       </c>
@@ -5187,7 +5367,7 @@
       </c>
     </row>
     <row r="30" spans="2:8" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B30" s="157" t="s">
+      <c r="B30" s="168" t="s">
         <v>10</v>
       </c>
       <c r="C30" s="71" t="s">
@@ -5215,7 +5395,7 @@
       </c>
     </row>
     <row r="31" spans="2:8" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B31" s="157"/>
+      <c r="B31" s="168"/>
       <c r="C31" s="83" t="s">
         <v>34</v>
       </c>
@@ -5241,7 +5421,7 @@
       </c>
     </row>
     <row r="32" spans="2:8" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B32" s="157"/>
+      <c r="B32" s="168"/>
       <c r="C32" s="83" t="s">
         <v>35</v>
       </c>
@@ -5267,7 +5447,7 @@
       </c>
     </row>
     <row r="33" spans="2:11" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B33" s="157"/>
+      <c r="B33" s="168"/>
       <c r="C33" s="83" t="s">
         <v>36</v>
       </c>
@@ -5293,7 +5473,7 @@
       </c>
     </row>
     <row r="34" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="158"/>
+      <c r="B34" s="169"/>
       <c r="C34" s="84" t="s">
         <v>37</v>
       </c>
@@ -5369,10 +5549,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:X72"/>
+  <dimension ref="A1:AK72"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="R10" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="W29" sqref="W29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="S16" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="W37" sqref="W37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -5398,21 +5578,23 @@
     <col min="23" max="23" width="25.73046875" style="1" customWidth="1"/>
     <col min="24" max="24" width="20.46484375" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="20.265625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="9.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.1328125" style="1"/>
+    <col min="26" max="26" width="9.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.53125" style="1" customWidth="1"/>
+    <col min="28" max="36" width="10.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A1" s="169" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A1" s="192" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="169"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A2" s="169"/>
-      <c r="B2" s="169"/>
-    </row>
-    <row r="3" spans="1:24" ht="54" x14ac:dyDescent="0.4">
+      <c r="B1" s="192"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A2" s="192"/>
+      <c r="B2" s="192"/>
+    </row>
+    <row r="3" spans="1:27" ht="54" x14ac:dyDescent="0.4">
       <c r="A3" s="100" t="s">
         <v>196</v>
       </c>
@@ -5426,7 +5608,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="14.25" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:27" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -5440,7 +5622,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="14.25" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:27" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>39</v>
       </c>
@@ -5454,7 +5636,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="14.25" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:27" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -5468,7 +5650,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="14.25" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:27" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -5482,7 +5664,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="14.25" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:27" ht="14.25" x14ac:dyDescent="0.4">
       <c r="B8" s="2"/>
       <c r="D8" s="1" t="s">
         <v>12</v>
@@ -5491,105 +5673,109 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="14.25" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:27" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A10" s="172" t="s">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A10" s="189" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="172"/>
-      <c r="C10" s="172"/>
-      <c r="D10" s="172"/>
-      <c r="E10" s="172"/>
-      <c r="F10" s="172"/>
-      <c r="G10" s="172"/>
-      <c r="H10" s="172"/>
-      <c r="I10" s="172"/>
-      <c r="J10" s="172"/>
-      <c r="K10" s="172"/>
-      <c r="L10" s="172"/>
-      <c r="M10" s="172"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A11" s="172"/>
-      <c r="B11" s="172"/>
-      <c r="C11" s="172"/>
-      <c r="D11" s="172"/>
-      <c r="E11" s="172"/>
-      <c r="F11" s="172"/>
-      <c r="G11" s="172"/>
-      <c r="H11" s="172"/>
-      <c r="I11" s="172"/>
-      <c r="J11" s="172"/>
-      <c r="K11" s="172"/>
-      <c r="L11" s="172"/>
-      <c r="M11" s="172"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A12" s="172"/>
-      <c r="B12" s="172"/>
-      <c r="C12" s="172"/>
-      <c r="D12" s="172"/>
-      <c r="E12" s="172"/>
-      <c r="F12" s="172"/>
-      <c r="G12" s="172"/>
-      <c r="H12" s="172"/>
-      <c r="I12" s="172"/>
-      <c r="J12" s="172"/>
-      <c r="K12" s="172"/>
-      <c r="L12" s="172"/>
-      <c r="M12" s="172"/>
-    </row>
-    <row r="13" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="172"/>
-      <c r="B13" s="172"/>
-      <c r="C13" s="172"/>
-      <c r="D13" s="172"/>
-      <c r="E13" s="172"/>
-      <c r="F13" s="172"/>
-      <c r="G13" s="172"/>
-      <c r="H13" s="172"/>
-      <c r="I13" s="172"/>
-      <c r="J13" s="172"/>
-      <c r="K13" s="172"/>
-      <c r="L13" s="172"/>
-      <c r="M13" s="172"/>
-    </row>
-    <row r="14" spans="1:24" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="B10" s="189"/>
+      <c r="C10" s="189"/>
+      <c r="D10" s="189"/>
+      <c r="E10" s="189"/>
+      <c r="F10" s="189"/>
+      <c r="G10" s="189"/>
+      <c r="H10" s="189"/>
+      <c r="I10" s="189"/>
+      <c r="J10" s="189"/>
+      <c r="K10" s="189"/>
+      <c r="L10" s="189"/>
+      <c r="M10" s="189"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A11" s="189"/>
+      <c r="B11" s="189"/>
+      <c r="C11" s="189"/>
+      <c r="D11" s="189"/>
+      <c r="E11" s="189"/>
+      <c r="F11" s="189"/>
+      <c r="G11" s="189"/>
+      <c r="H11" s="189"/>
+      <c r="I11" s="189"/>
+      <c r="J11" s="189"/>
+      <c r="K11" s="189"/>
+      <c r="L11" s="189"/>
+      <c r="M11" s="189"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A12" s="189"/>
+      <c r="B12" s="189"/>
+      <c r="C12" s="189"/>
+      <c r="D12" s="189"/>
+      <c r="E12" s="189"/>
+      <c r="F12" s="189"/>
+      <c r="G12" s="189"/>
+      <c r="H12" s="189"/>
+      <c r="I12" s="189"/>
+      <c r="J12" s="189"/>
+      <c r="K12" s="189"/>
+      <c r="L12" s="189"/>
+      <c r="M12" s="189"/>
+    </row>
+    <row r="13" spans="1:27" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="189"/>
+      <c r="B13" s="189"/>
+      <c r="C13" s="189"/>
+      <c r="D13" s="189"/>
+      <c r="E13" s="189"/>
+      <c r="F13" s="189"/>
+      <c r="G13" s="189"/>
+      <c r="H13" s="189"/>
+      <c r="I13" s="189"/>
+      <c r="J13" s="189"/>
+      <c r="K13" s="189"/>
+      <c r="L13" s="189"/>
+      <c r="M13" s="189"/>
+    </row>
+    <row r="14" spans="1:27" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A14" s="76"/>
       <c r="B14" s="72"/>
       <c r="C14" s="72"/>
       <c r="D14" s="72"/>
-      <c r="E14" s="170" t="s">
+      <c r="E14" s="187" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="171"/>
-      <c r="G14" s="171"/>
-      <c r="H14" s="171"/>
-      <c r="I14" s="171"/>
+      <c r="F14" s="188"/>
+      <c r="G14" s="188"/>
+      <c r="H14" s="188"/>
+      <c r="I14" s="188"/>
       <c r="J14" s="96"/>
-      <c r="K14" s="173" t="s">
+      <c r="K14" s="190" t="s">
         <v>66</v>
       </c>
-      <c r="L14" s="171"/>
-      <c r="M14" s="171"/>
-      <c r="N14" s="171"/>
-      <c r="O14" s="174"/>
+      <c r="L14" s="188"/>
+      <c r="M14" s="188"/>
+      <c r="N14" s="188"/>
+      <c r="O14" s="191"/>
       <c r="P14" s="71"/>
       <c r="Q14" s="72"/>
       <c r="R14" s="71"/>
       <c r="S14" s="72"/>
       <c r="T14" s="73"/>
-      <c r="U14" s="131"/>
-      <c r="V14" s="132"/>
-      <c r="W14" s="133"/>
-      <c r="X14" s="132"/>
-    </row>
-    <row r="15" spans="1:24" s="16" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="U14" s="193" t="s">
+        <v>215</v>
+      </c>
+      <c r="V14" s="195" t="s">
+        <v>220</v>
+      </c>
+      <c r="W14" s="132"/>
+      <c r="X14" s="131"/>
+    </row>
+    <row r="15" spans="1:27" s="16" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="77"/>
       <c r="B15" s="98" t="s">
         <v>41</v>
@@ -5648,21 +5834,17 @@
       <c r="T15" s="126" t="s">
         <v>218</v>
       </c>
-      <c r="U15" s="141" t="s">
-        <v>215</v>
-      </c>
-      <c r="V15" s="140" t="s">
-        <v>220</v>
-      </c>
-      <c r="W15" s="145" t="s">
+      <c r="U15" s="194"/>
+      <c r="V15" s="196"/>
+      <c r="W15" s="143" t="s">
         <v>219</v>
       </c>
-      <c r="X15" s="140" t="s">
+      <c r="X15" s="139" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A16" s="167" t="s">
+    <row r="16" spans="1:27" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A16" s="178" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="71" t="s">
@@ -5740,24 +5922,25 @@
         <f>-R16/S16</f>
         <v>-8.6411891948105996E-4</v>
       </c>
-      <c r="U16" s="134">
-        <v>0</v>
-      </c>
-      <c r="V16" s="135">
+      <c r="U16" s="133">
+        <v>0</v>
+      </c>
+      <c r="V16" s="134">
         <f>U16/D16</f>
         <v>0</v>
       </c>
-      <c r="W16" s="146">
+      <c r="W16" s="144">
         <f>IF(P16-U16&lt;0,0,P16-U16)</f>
         <v>7.5813074817200956</v>
       </c>
-      <c r="X16" s="135">
+      <c r="X16" s="134">
         <f t="shared" ref="X16:X40" si="8">-W16/S16</f>
         <v>-2.4776324329945734E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:24" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A17" s="157"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="1:37" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A17" s="168"/>
       <c r="B17" s="83" t="s">
         <v>14</v>
       </c>
@@ -5833,24 +6016,27 @@
         <f t="shared" ref="T17:T40" si="16">-R17/S17</f>
         <v>-3.2367661755642891E-4</v>
       </c>
-      <c r="U17" s="137">
+      <c r="U17" s="136">
         <v>17.059999999999999</v>
       </c>
-      <c r="V17" s="136">
+      <c r="V17" s="135">
         <f t="shared" ref="V17:V40" si="17">U17/D17</f>
         <v>0.15327116238118341</v>
       </c>
-      <c r="W17" s="147">
+      <c r="W17" s="145">
         <f t="shared" ref="W17:W40" si="18">IF(P17-U17&lt;0,0,P17-U17)</f>
         <v>0</v>
       </c>
-      <c r="X17" s="136">
+      <c r="X17" s="135">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="157"/>
+      <c r="Z17" s="156" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="168"/>
       <c r="B18" s="83" t="s">
         <v>15</v>
       </c>
@@ -5926,24 +6112,25 @@
         <f t="shared" si="16"/>
         <v>-6.6581403109368549E-4</v>
       </c>
-      <c r="U18" s="137">
+      <c r="U18" s="136">
         <v>48.9</v>
       </c>
-      <c r="V18" s="136">
+      <c r="V18" s="135">
         <f t="shared" si="17"/>
         <v>0.44420624250572355</v>
       </c>
-      <c r="W18" s="147">
+      <c r="W18" s="145">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="X18" s="136">
+      <c r="X18" s="135">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:24" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A19" s="157"/>
+      <c r="AA18" s="3"/>
+    </row>
+    <row r="19" spans="1:37" ht="14.65" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="168"/>
       <c r="B19" s="83" t="s">
         <v>16</v>
       </c>
@@ -6019,24 +6206,40 @@
         <f t="shared" si="16"/>
         <v>-8.2920580136554612E-5</v>
       </c>
-      <c r="U19" s="137">
+      <c r="U19" s="136">
         <v>24.59</v>
       </c>
-      <c r="V19" s="136">
+      <c r="V19" s="135">
         <f t="shared" si="17"/>
         <v>1.2323343690488122</v>
       </c>
-      <c r="W19" s="147">
+      <c r="W19" s="145">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="X19" s="136">
+      <c r="X19" s="135">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="158"/>
+      <c r="Z19" s="183" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA19" s="185" t="s">
+        <v>231</v>
+      </c>
+      <c r="AB19" s="180" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC19" s="181"/>
+      <c r="AD19" s="181"/>
+      <c r="AE19" s="181"/>
+      <c r="AF19" s="181"/>
+      <c r="AG19" s="181"/>
+      <c r="AH19" s="181"/>
+      <c r="AI19" s="182"/>
+    </row>
+    <row r="20" spans="1:37" ht="14.65" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="169"/>
       <c r="B20" s="84" t="s">
         <v>17</v>
       </c>
@@ -6112,24 +6315,52 @@
         <f t="shared" si="16"/>
         <v>-7.1308433578814003E-3</v>
       </c>
-      <c r="U20" s="138">
+      <c r="U20" s="137">
         <v>26.55</v>
       </c>
-      <c r="V20" s="139">
+      <c r="V20" s="138">
         <f t="shared" si="17"/>
         <v>4.7629127857747672E-2</v>
       </c>
-      <c r="W20" s="148">
+      <c r="W20" s="146">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="X20" s="139">
+      <c r="X20" s="138">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:24" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A21" s="167" t="s">
+      <c r="Z20" s="184"/>
+      <c r="AA20" s="186"/>
+      <c r="AB20" s="159">
+        <v>0.05</v>
+      </c>
+      <c r="AC20" s="160">
+        <v>0.1</v>
+      </c>
+      <c r="AD20" s="160">
+        <v>0.2</v>
+      </c>
+      <c r="AE20" s="160">
+        <v>0.3</v>
+      </c>
+      <c r="AF20" s="160">
+        <v>0.4</v>
+      </c>
+      <c r="AG20" s="160">
+        <v>0.5</v>
+      </c>
+      <c r="AH20" s="160">
+        <v>0.6</v>
+      </c>
+      <c r="AI20" s="161">
+        <v>0.65</v>
+      </c>
+      <c r="AJ20" s="2"/>
+      <c r="AK20" s="2"/>
+    </row>
+    <row r="21" spans="1:37" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A21" s="178" t="s">
         <v>43</v>
       </c>
       <c r="B21" s="83" t="s">
@@ -6207,24 +6438,62 @@
         <f t="shared" si="16"/>
         <v>-3.6732516435293537E-2</v>
       </c>
-      <c r="U21" s="134">
+      <c r="U21" s="133">
         <v>43.06</v>
       </c>
-      <c r="V21" s="135">
+      <c r="V21" s="134">
         <f t="shared" si="17"/>
         <v>1.5170465154787365E-2</v>
       </c>
-      <c r="W21" s="146">
+      <c r="W21" s="144">
         <f t="shared" si="18"/>
         <v>28.357787254663776</v>
       </c>
-      <c r="X21" s="135">
+      <c r="X21" s="134">
         <f t="shared" si="8"/>
         <v>-3.611628830925874E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:24" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A22" s="157"/>
+      <c r="Z21" s="151" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA21" s="157">
+        <f>X24</f>
+        <v>-0.22603778688670315</v>
+      </c>
+      <c r="AB21" s="162">
+        <f t="dataTable" ref="AB21:AK25" dt2D="0" dtr="1" r1="B5"/>
+        <v>0</v>
+      </c>
+      <c r="AC21" s="114">
+        <v>-4.1679411852513859E-3</v>
+      </c>
+      <c r="AD21" s="114">
+        <v>-4.4507913130969877E-2</v>
+      </c>
+      <c r="AE21" s="114">
+        <v>-8.4847885076688362E-2</v>
+      </c>
+      <c r="AF21" s="163">
+        <v>-0.12518785702240687</v>
+      </c>
+      <c r="AG21" s="114">
+        <v>-0.16552782896812535</v>
+      </c>
+      <c r="AH21" s="114">
+        <v>-0.20586780091384385</v>
+      </c>
+      <c r="AI21" s="106">
+        <v>-0.22603778688670315</v>
+      </c>
+      <c r="AJ21" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A22" s="168"/>
       <c r="B22" s="83" t="s">
         <v>19</v>
       </c>
@@ -6300,24 +6569,61 @@
         <f t="shared" si="16"/>
         <v>-4.9465806791282971E-2</v>
       </c>
-      <c r="U22" s="137">
+      <c r="U22" s="136">
         <v>25.36</v>
       </c>
-      <c r="V22" s="136">
+      <c r="V22" s="135">
         <f t="shared" si="17"/>
         <v>8.3748055730764534E-3</v>
       </c>
-      <c r="W22" s="147">
+      <c r="W22" s="145">
         <f t="shared" si="18"/>
         <v>43.816419737309914</v>
       </c>
-      <c r="X22" s="136">
+      <c r="X22" s="135">
         <f t="shared" si="8"/>
         <v>-9.1242388358064863E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:24" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A23" s="157"/>
+      <c r="Z22" s="151" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA22" s="157">
+        <f>X26</f>
+        <v>-0.16577044911857697</v>
+      </c>
+      <c r="AB22" s="164">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="115">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="115">
+        <v>-8.255607453342995E-3</v>
+      </c>
+      <c r="AE22" s="115">
+        <v>-4.3258905601172758E-2</v>
+      </c>
+      <c r="AF22" s="165">
+        <v>-7.8262203749002543E-2</v>
+      </c>
+      <c r="AG22" s="115">
+        <v>-0.11326550189683232</v>
+      </c>
+      <c r="AH22" s="115">
+        <v>-0.14826880004466206</v>
+      </c>
+      <c r="AI22" s="107">
+        <v>-0.16577044911857697</v>
+      </c>
+      <c r="AJ22" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A23" s="168"/>
       <c r="B23" s="83" t="s">
         <v>20</v>
       </c>
@@ -6393,24 +6699,61 @@
         <f t="shared" si="16"/>
         <v>-9.1184479275667751E-2</v>
       </c>
-      <c r="U23" s="137">
+      <c r="U23" s="136">
         <v>65.2</v>
       </c>
-      <c r="V23" s="136">
+      <c r="V23" s="135">
         <f t="shared" si="17"/>
         <v>1.515290606941286E-2</v>
       </c>
-      <c r="W23" s="147">
+      <c r="W23" s="145">
         <f t="shared" si="18"/>
         <v>50.706292175983634</v>
       </c>
-      <c r="X23" s="136">
+      <c r="X23" s="135">
         <f t="shared" si="8"/>
         <v>-9.0016495963045687E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:24" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A24" s="157"/>
+      <c r="Z23" s="151" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA23" s="157">
+        <f>X28</f>
+        <v>-0.14926056864419829</v>
+      </c>
+      <c r="AB23" s="164">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="115">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="115">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="115">
+        <v>-1.8384597447063077E-2</v>
+      </c>
+      <c r="AF23" s="165">
+        <v>-5.5777732074816018E-2</v>
+      </c>
+      <c r="AG23" s="115">
+        <v>-9.3170866702568925E-2</v>
+      </c>
+      <c r="AH23" s="115">
+        <v>-0.13056400133032181</v>
+      </c>
+      <c r="AI23" s="107">
+        <v>-0.14926056864419829</v>
+      </c>
+      <c r="AJ23" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A24" s="168"/>
       <c r="B24" s="83" t="s">
         <v>21</v>
       </c>
@@ -6486,24 +6829,61 @@
         <f t="shared" si="16"/>
         <v>-0.10367251969074756</v>
       </c>
-      <c r="U24" s="137">
+      <c r="U24" s="136">
         <v>20.32</v>
       </c>
-      <c r="V24" s="136">
+      <c r="V24" s="135">
         <f t="shared" si="17"/>
         <v>3.4224152196421706E-3</v>
       </c>
-      <c r="W24" s="147">
+      <c r="W24" s="145">
         <f>IF(P24-U24&lt;0,0,P24-U24)</f>
         <v>126.97898716147435</v>
       </c>
-      <c r="X24" s="136">
+      <c r="X24" s="135">
         <f t="shared" si="8"/>
         <v>-0.22603778688670315</v>
       </c>
-    </row>
-    <row r="25" spans="1:24" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A25" s="157"/>
+      <c r="Z24" s="151" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA24" s="157">
+        <f>X23</f>
+        <v>-9.0016495963045687E-2</v>
+      </c>
+      <c r="AB24" s="164">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="115">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="115">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="115">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="165">
+        <v>-1.0876884486729188E-2</v>
+      </c>
+      <c r="AG24" s="115">
+        <v>-4.2532729077255756E-2</v>
+      </c>
+      <c r="AH24" s="115">
+        <v>-7.4188573667782393E-2</v>
+      </c>
+      <c r="AI24" s="107">
+        <v>-9.0016495963045687E-2</v>
+      </c>
+      <c r="AJ24" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37" ht="14.65" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="168"/>
       <c r="B25" s="83" t="s">
         <v>22</v>
       </c>
@@ -6579,24 +6959,61 @@
         <f t="shared" si="16"/>
         <v>-0.13298167965832763</v>
       </c>
-      <c r="U25" s="137">
+      <c r="U25" s="136">
         <v>159.46</v>
       </c>
-      <c r="V25" s="136">
+      <c r="V25" s="135">
         <f t="shared" si="17"/>
         <v>1.7309936441942893E-2</v>
       </c>
-      <c r="W25" s="147">
+      <c r="W25" s="145">
         <f t="shared" si="18"/>
         <v>62.767831177656205</v>
       </c>
-      <c r="X25" s="136">
+      <c r="X25" s="135">
         <f t="shared" si="8"/>
         <v>-9.931304575433722E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:24" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A26" s="157"/>
+      <c r="Z25" s="152" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA25" s="158">
+        <f>X27</f>
+        <v>-6.7104469582727588E-2</v>
+      </c>
+      <c r="AB25" s="166">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="116">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="116">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="116">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="167">
+        <v>-1.2495827748347267E-2</v>
+      </c>
+      <c r="AG25" s="116">
+        <v>-3.4339284482099386E-2</v>
+      </c>
+      <c r="AH25" s="116">
+        <v>-5.6182741215851505E-2</v>
+      </c>
+      <c r="AI25" s="108">
+        <v>-6.7104469582727588E-2</v>
+      </c>
+      <c r="AJ25" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK25" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A26" s="168"/>
       <c r="B26" s="83" t="s">
         <v>23</v>
       </c>
@@ -6672,24 +7089,35 @@
         <f t="shared" si="16"/>
         <v>-8.5822090301645615E-2</v>
       </c>
-      <c r="U26" s="137">
+      <c r="U26" s="136">
         <v>20.92</v>
       </c>
-      <c r="V26" s="136">
+      <c r="V26" s="135">
         <f t="shared" si="17"/>
         <v>6.5368320174782144E-3</v>
       </c>
-      <c r="W26" s="147">
+      <c r="W26" s="145">
         <f t="shared" si="18"/>
         <v>56.159712752391499</v>
       </c>
-      <c r="X26" s="136">
+      <c r="X26" s="135">
         <f t="shared" si="8"/>
         <v>-0.16577044911857697</v>
       </c>
-    </row>
-    <row r="27" spans="1:24" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A27" s="157"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="10"/>
+      <c r="AC26" s="10"/>
+      <c r="AD26" s="10"/>
+      <c r="AE26" s="10"/>
+      <c r="AF26" s="155"/>
+      <c r="AG26" s="10"/>
+      <c r="AH26" s="10"/>
+      <c r="AI26" s="10"/>
+      <c r="AJ26" s="10"/>
+      <c r="AK26" s="10"/>
+    </row>
+    <row r="27" spans="1:37" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A27" s="168"/>
       <c r="B27" s="83" t="s">
         <v>24</v>
       </c>
@@ -6765,24 +7193,35 @@
         <f t="shared" si="16"/>
         <v>-5.567772090440308E-2</v>
       </c>
-      <c r="U27" s="137">
+      <c r="U27" s="136">
         <v>14.73</v>
       </c>
-      <c r="V27" s="136">
+      <c r="V27" s="135">
         <f t="shared" si="17"/>
         <v>1.3013999989397965E-2</v>
       </c>
-      <c r="W27" s="147">
+      <c r="W27" s="145">
         <f t="shared" si="18"/>
         <v>13.200791256314172</v>
       </c>
-      <c r="X27" s="136">
+      <c r="X27" s="135">
         <f t="shared" si="8"/>
         <v>-6.7104469582727588E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="158"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="10"/>
+      <c r="AC27" s="10"/>
+      <c r="AD27" s="10"/>
+      <c r="AE27" s="10"/>
+      <c r="AF27" s="155"/>
+      <c r="AG27" s="10"/>
+      <c r="AH27" s="10"/>
+      <c r="AI27" s="10"/>
+      <c r="AJ27" s="10"/>
+      <c r="AK27" s="10"/>
+    </row>
+    <row r="28" spans="1:37" ht="14.65" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="169"/>
       <c r="B28" s="83" t="s">
         <v>25</v>
       </c>
@@ -6858,24 +7297,51 @@
         <f t="shared" si="16"/>
         <v>-0.10093401933720453</v>
       </c>
-      <c r="U28" s="138">
+      <c r="U28" s="137">
         <v>23.55</v>
       </c>
-      <c r="V28" s="139">
+      <c r="V28" s="138">
         <f t="shared" si="17"/>
         <v>9.8994418480303267E-3</v>
       </c>
-      <c r="W28" s="148">
+      <c r="W28" s="146">
         <f t="shared" si="18"/>
         <v>37.476343575185311</v>
       </c>
-      <c r="X28" s="139">
+      <c r="X28" s="138">
         <f t="shared" si="8"/>
         <v>-0.14926056864419829</v>
       </c>
-    </row>
-    <row r="29" spans="1:24" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A29" s="168" t="s">
+      <c r="Y28" s="109">
+        <v>42916</v>
+      </c>
+      <c r="Z28" s="197" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA28" s="199" t="s">
+        <v>237</v>
+      </c>
+      <c r="AB28" s="200" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC28" s="10"/>
+      <c r="AD28" s="200" t="s">
+        <v>239</v>
+      </c>
+      <c r="AE28" s="200" t="s">
+        <v>240</v>
+      </c>
+      <c r="AF28" s="201" t="s">
+        <v>241</v>
+      </c>
+      <c r="AG28" s="10"/>
+      <c r="AH28" s="10"/>
+      <c r="AI28" s="10"/>
+      <c r="AJ28" s="10"/>
+      <c r="AK28" s="10"/>
+    </row>
+    <row r="29" spans="1:37" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A29" s="179" t="s">
         <v>52</v>
       </c>
       <c r="B29" s="71" t="s">
@@ -6953,24 +7419,55 @@
         <f t="shared" si="16"/>
         <v>-3.0468623444412424E-2</v>
       </c>
-      <c r="U29" s="134">
+      <c r="U29" s="133">
         <v>97.36</v>
       </c>
-      <c r="V29" s="135">
+      <c r="V29" s="134">
         <f t="shared" si="17"/>
         <v>7.3301772011612643E-2</v>
       </c>
-      <c r="W29" s="146">
+      <c r="W29" s="144">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="X29" s="135">
+      <c r="X29" s="134">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:24" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A30" s="157"/>
+      <c r="Y29" s="1" t="str">
+        <f>[1]!to_tradecode(Z29)</f>
+        <v>600036</v>
+      </c>
+      <c r="Z29" s="197" t="s">
+        <v>234</v>
+      </c>
+      <c r="AA29" s="198">
+        <f>D21</f>
+        <v>2838.41</v>
+      </c>
+      <c r="AB29" s="5">
+        <f>U21</f>
+        <v>43.06</v>
+      </c>
+      <c r="AC29" s="10">
+        <f>AB29/AA29</f>
+        <v>1.5170465154787365E-2</v>
+      </c>
+      <c r="AD29" s="6">
+        <f>[1]!s_stmnote_bank_22n(Y29,$Y$28,1,100000000)</f>
+        <v>1358.44</v>
+      </c>
+      <c r="AE29" s="6">
+        <f>[1]!s_stmnote_bank_1n(Y29,$Y$28,1,100000000)</f>
+        <v>35399.379999999997</v>
+      </c>
+      <c r="AF29" s="10">
+        <f>AD29/AE29</f>
+        <v>3.8374683398409805E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A30" s="168"/>
       <c r="B30" s="83" t="s">
         <v>27</v>
       </c>
@@ -7046,24 +7543,55 @@
         <f t="shared" si="16"/>
         <v>-3.5869098871039992E-2</v>
       </c>
-      <c r="U30" s="137">
+      <c r="U30" s="136">
         <v>24.131910000000001</v>
       </c>
-      <c r="V30" s="136">
+      <c r="V30" s="135">
         <f t="shared" si="17"/>
         <v>2.535274933374718E-2</v>
       </c>
-      <c r="W30" s="147">
+      <c r="W30" s="145">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="X30" s="136">
+      <c r="X30" s="135">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:24" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A31" s="157"/>
+      <c r="Y30" s="1" t="str">
+        <f>[1]!to_tradecode(Z30)</f>
+        <v>601998</v>
+      </c>
+      <c r="Z30" s="197" t="s">
+        <v>235</v>
+      </c>
+      <c r="AA30" s="198">
+        <f>D22</f>
+        <v>3028.13</v>
+      </c>
+      <c r="AB30" s="5">
+        <f>U22</f>
+        <v>25.36</v>
+      </c>
+      <c r="AC30" s="10">
+        <f t="shared" ref="AC30:AC31" si="24">AB30/AA30</f>
+        <v>8.3748055730764534E-3</v>
+      </c>
+      <c r="AD30" s="6">
+        <f>[1]!s_stmnote_bank_22n(Y30,$Y$28,1,100000000)</f>
+        <v>781.99</v>
+      </c>
+      <c r="AE30" s="6">
+        <f>[1]!s_stmnote_bank_1n(Y30,$Y$28,1,100000000)</f>
+        <v>30910.95</v>
+      </c>
+      <c r="AF30" s="10">
+        <f t="shared" ref="AF30:AF31" si="25">AD30/AE30</f>
+        <v>2.5298154860979683E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:37" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A31" s="168"/>
       <c r="B31" s="83" t="s">
         <v>28</v>
       </c>
@@ -7139,24 +7667,55 @@
         <f t="shared" si="16"/>
         <v>-1.7398056810996307E-2</v>
       </c>
-      <c r="U31" s="137">
+      <c r="U31" s="136">
         <v>2.4</v>
       </c>
-      <c r="V31" s="136">
+      <c r="V31" s="135">
         <f t="shared" si="17"/>
         <v>5.8584340462425914E-3</v>
       </c>
-      <c r="W31" s="147">
+      <c r="W31" s="145">
         <f t="shared" si="18"/>
         <v>5.4031921350446961</v>
       </c>
-      <c r="X31" s="136">
+      <c r="X31" s="135">
         <f t="shared" si="8"/>
         <v>-5.669083488838185E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:24" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A32" s="157"/>
+      <c r="Y31" s="1" t="str">
+        <f>[1]!to_tradecode(Z31)</f>
+        <v>601166</v>
+      </c>
+      <c r="Z31" s="197" t="s">
+        <v>236</v>
+      </c>
+      <c r="AA31" s="198">
+        <f>D25</f>
+        <v>9212.0499999999993</v>
+      </c>
+      <c r="AB31" s="5">
+        <f>U25</f>
+        <v>159.46</v>
+      </c>
+      <c r="AC31" s="10">
+        <f t="shared" si="24"/>
+        <v>1.7309936441942893E-2</v>
+      </c>
+      <c r="AD31" s="6">
+        <f>[1]!s_stmnote_bank_22n(Y31,$Y$28,1,100000000)</f>
+        <v>814.86</v>
+      </c>
+      <c r="AE31" s="6">
+        <f>[1]!s_stmnote_bank_1n(Y31,$Y$28,1,100000000)</f>
+        <v>22846.65</v>
+      </c>
+      <c r="AF31" s="10">
+        <f t="shared" si="25"/>
+        <v>3.5666498151807814E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:37" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A32" s="168"/>
       <c r="B32" s="83" t="s">
         <v>29</v>
       </c>
@@ -7232,24 +7791,25 @@
         <f t="shared" si="16"/>
         <v>-2.5124342830443035E-2</v>
       </c>
-      <c r="U32" s="137">
+      <c r="U32" s="136">
         <v>67.708160000000007</v>
       </c>
-      <c r="V32" s="136">
+      <c r="V32" s="135">
         <f t="shared" si="17"/>
         <v>0.11684341431843737</v>
       </c>
-      <c r="W32" s="147">
+      <c r="W32" s="145">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="X32" s="136">
+      <c r="X32" s="135">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:24" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A33" s="157"/>
+      <c r="AA32" s="3"/>
+    </row>
+    <row r="33" spans="1:27" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A33" s="168"/>
       <c r="B33" s="83" t="s">
         <v>30</v>
       </c>
@@ -7325,24 +7885,25 @@
         <f t="shared" si="16"/>
         <v>-6.7036004549081998E-2</v>
       </c>
-      <c r="U33" s="137">
+      <c r="U33" s="136">
         <v>14.410450000000001</v>
       </c>
-      <c r="V33" s="136">
+      <c r="V33" s="135">
         <f t="shared" si="17"/>
         <v>4.7185771306163006E-2</v>
       </c>
-      <c r="W33" s="147">
+      <c r="W33" s="145">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="X33" s="136">
+      <c r="X33" s="135">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:24" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A34" s="157"/>
+      <c r="AA33" s="3"/>
+    </row>
+    <row r="34" spans="1:27" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A34" s="168"/>
       <c r="B34" s="83" t="s">
         <v>31</v>
       </c>
@@ -7418,24 +7979,25 @@
         <f t="shared" si="16"/>
         <v>-6.024535749717521E-2</v>
       </c>
-      <c r="U34" s="137">
+      <c r="U34" s="136">
         <v>2.35</v>
       </c>
-      <c r="V34" s="136">
+      <c r="V34" s="135">
         <f t="shared" si="17"/>
         <v>8.2527478841007973E-3</v>
       </c>
-      <c r="W34" s="147">
+      <c r="W34" s="145">
         <f t="shared" si="18"/>
         <v>4.9710679804578533</v>
       </c>
-      <c r="X34" s="136">
+      <c r="X34" s="135">
         <f t="shared" si="8"/>
         <v>-9.8199017518691409E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="158"/>
+      <c r="AA34" s="3"/>
+    </row>
+    <row r="35" spans="1:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="169"/>
       <c r="B35" s="84" t="s">
         <v>32</v>
       </c>
@@ -7511,23 +8073,24 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="U35" s="138">
+      <c r="U35" s="137">
         <v>24.378209999999999</v>
       </c>
-      <c r="V35" s="149" t="s">
+      <c r="V35" s="147" t="s">
         <v>223</v>
       </c>
-      <c r="W35" s="148">
+      <c r="W35" s="146">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="X35" s="139">
+      <c r="X35" s="138">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:24" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A36" s="157" t="s">
+      <c r="AA35" s="3"/>
+    </row>
+    <row r="36" spans="1:27" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A36" s="168" t="s">
         <v>44</v>
       </c>
       <c r="B36" s="83" t="s">
@@ -7605,24 +8168,25 @@
         <f t="shared" si="16"/>
         <v>-1.4226771532032136E-2</v>
       </c>
-      <c r="U36" s="134">
+      <c r="U36" s="133">
         <v>1.20529</v>
       </c>
-      <c r="V36" s="135">
+      <c r="V36" s="134">
         <f t="shared" si="17"/>
         <v>3.8149815152435936E-2</v>
       </c>
-      <c r="W36" s="146">
+      <c r="W36" s="144">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="X36" s="135">
+      <c r="X36" s="134">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:24" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A37" s="157"/>
+      <c r="AA36" s="3"/>
+    </row>
+    <row r="37" spans="1:27" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A37" s="168"/>
       <c r="B37" s="83" t="s">
         <v>34</v>
       </c>
@@ -7698,24 +8262,25 @@
         <f t="shared" si="16"/>
         <v>-2.1447426585595501E-2</v>
       </c>
-      <c r="U37" s="137">
+      <c r="U37" s="136">
         <v>2.4623499999999998</v>
       </c>
-      <c r="V37" s="136">
+      <c r="V37" s="135">
         <f t="shared" si="17"/>
         <v>4.312125942972727E-2</v>
       </c>
-      <c r="W37" s="147">
+      <c r="W37" s="145">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="X37" s="136">
+      <c r="X37" s="135">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:24" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A38" s="157"/>
+      <c r="AA37" s="3"/>
+    </row>
+    <row r="38" spans="1:27" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A38" s="168"/>
       <c r="B38" s="83" t="s">
         <v>35</v>
       </c>
@@ -7791,23 +8356,23 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="U38" s="137">
-        <v>0</v>
-      </c>
-      <c r="V38" s="142" t="s">
+      <c r="U38" s="136">
+        <v>0</v>
+      </c>
+      <c r="V38" s="140" t="s">
         <v>223</v>
       </c>
-      <c r="W38" s="147">
+      <c r="W38" s="145">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="X38" s="136">
+      <c r="X38" s="135">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A39" s="157"/>
+    <row r="39" spans="1:27" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A39" s="168"/>
       <c r="B39" s="83" t="s">
         <v>36</v>
       </c>
@@ -7883,23 +8448,23 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="U39" s="137">
-        <v>0</v>
-      </c>
-      <c r="V39" s="142" t="s">
+      <c r="U39" s="136">
+        <v>0</v>
+      </c>
+      <c r="V39" s="140" t="s">
         <v>223</v>
       </c>
-      <c r="W39" s="147">
+      <c r="W39" s="145">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="X39" s="136">
+      <c r="X39" s="135">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="158"/>
+    <row r="40" spans="1:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="169"/>
       <c r="B40" s="84" t="s">
         <v>37</v>
       </c>
@@ -7975,39 +8540,39 @@
         <f t="shared" si="16"/>
         <v>-6.8710062754623342E-3</v>
       </c>
-      <c r="U40" s="138">
+      <c r="U40" s="137">
         <v>0.94874999999999998</v>
       </c>
-      <c r="V40" s="139">
+      <c r="V40" s="138">
         <f t="shared" si="17"/>
         <v>0.16623025760479529</v>
       </c>
-      <c r="W40" s="148">
+      <c r="W40" s="146">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="X40" s="139">
+      <c r="X40" s="138">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="14.25" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:27" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A41" s="66" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="14.25" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:27" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A42" s="69" t="s">
         <v>64</v>
       </c>
       <c r="R42" s="7"/>
     </row>
-    <row r="45" spans="1:24" ht="14.25" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:27" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A45" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:24" ht="14.25" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:27" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A46" s="70">
         <v>42916</v>
       </c>
@@ -8022,7 +8587,7 @@
       <c r="W46" s="3"/>
       <c r="X46" s="3"/>
     </row>
-    <row r="47" spans="1:24" ht="14.25" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:27" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>48</v>
       </c>
@@ -8071,7 +8636,7 @@
       </c>
       <c r="X47" s="6"/>
     </row>
-    <row r="48" spans="1:24" ht="14.25" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:27" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="str">
         <f>[1]!to_tradecode(B48)</f>
         <v>601398</v>
@@ -8109,27 +8674,27 @@
       </c>
       <c r="J48" s="9"/>
       <c r="K48" s="10">
-        <f t="shared" ref="K48:K72" si="24">C48/$H48</f>
+        <f t="shared" ref="K48:K72" si="26">C48/$H48</f>
         <v>0.94531768526679372</v>
       </c>
       <c r="L48" s="10">
-        <f t="shared" ref="L48:L72" si="25">D48/$H48</f>
+        <f t="shared" ref="L48:L72" si="27">D48/$H48</f>
         <v>3.9027228579100008E-2</v>
       </c>
       <c r="M48" s="10">
-        <f t="shared" ref="M48:M72" si="26">E48/$H48</f>
+        <f t="shared" ref="M48:M72" si="28">E48/$H48</f>
         <v>7.5617112444629486E-3</v>
       </c>
       <c r="N48" s="10">
-        <f t="shared" ref="N48:N72" si="27">F48/$H48</f>
+        <f t="shared" ref="N48:N72" si="29">F48/$H48</f>
         <v>6.6980102061826603E-3</v>
       </c>
       <c r="O48" s="10">
-        <f t="shared" ref="O48:O72" si="28">G48/$H48</f>
+        <f t="shared" ref="O48:O72" si="30">G48/$H48</f>
         <v>1.3953647034608404E-3</v>
       </c>
       <c r="P48" s="3">
-        <f t="shared" ref="P48:P72" si="29">SUM(K48:O48)</f>
+        <f t="shared" ref="P48:P72" si="31">SUM(K48:O48)</f>
         <v>1.0000000000000002</v>
       </c>
       <c r="Q48" s="9">
@@ -8170,32 +8735,32 @@
         <v>125070.21</v>
       </c>
       <c r="I49" s="9">
-        <f t="shared" ref="I49:I72" si="30">H49-SUM(C49:G49)</f>
+        <f t="shared" ref="I49:I72" si="32">H49-SUM(C49:G49)</f>
         <v>0</v>
       </c>
       <c r="J49" s="9"/>
       <c r="K49" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.95649579544161634</v>
       </c>
       <c r="L49" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2.8412521255061454E-2</v>
       </c>
       <c r="M49" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>6.2370567699534529E-3</v>
       </c>
       <c r="N49" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>7.1994761982089898E-3</v>
       </c>
       <c r="O49" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1.6551503351597474E-3</v>
       </c>
       <c r="P49" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="Q49" s="9">
@@ -8236,32 +8801,32 @@
         <v>104119.18</v>
       </c>
       <c r="I50" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="J50" s="9"/>
       <c r="K50" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.94186613840024491</v>
       </c>
       <c r="L50" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3.6194484051833682E-2</v>
       </c>
       <c r="M50" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>3.8298419176947033E-3</v>
       </c>
       <c r="N50" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.5840981459900087E-2</v>
       </c>
       <c r="O50" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>2.2685541703267352E-3</v>
       </c>
       <c r="P50" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="Q50" s="9">
@@ -8302,32 +8867,32 @@
         <v>106507.03</v>
       </c>
       <c r="I51" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="J51" s="9"/>
       <c r="K51" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.95849616687274075</v>
       </c>
       <c r="L51" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2.7699580018333062E-2</v>
       </c>
       <c r="M51" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>5.9970689258727807E-3</v>
       </c>
       <c r="N51" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2.9921968531091327E-3</v>
       </c>
       <c r="O51" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>4.8149873299443242E-3</v>
       </c>
       <c r="P51" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="Q51" s="9">
@@ -8368,32 +8933,32 @@
         <v>43701.47</v>
       </c>
       <c r="I52" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="J52" s="9"/>
       <c r="K52" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.95597745339001183</v>
       </c>
       <c r="L52" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2.8930834592062919E-2</v>
       </c>
       <c r="M52" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>4.2991688837926961E-3</v>
       </c>
       <c r="N52" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5.795686049004759E-3</v>
       </c>
       <c r="O52" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>4.9968570851278002E-3</v>
       </c>
       <c r="P52" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="Q52" s="9">
@@ -8434,32 +8999,32 @@
         <v>35399.379999999997</v>
       </c>
       <c r="I53" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="J53" s="9"/>
       <c r="K53" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.96576267719943132</v>
       </c>
       <c r="L53" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.7158210115544397E-2</v>
       </c>
       <c r="M53" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>6.0859822968650865E-3</v>
       </c>
       <c r="N53" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>6.647291562733585E-3</v>
       </c>
       <c r="O53" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>4.3458388254257567E-3</v>
       </c>
       <c r="P53" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="Q53" s="9">
@@ -8500,32 +9065,32 @@
         <v>30910.95</v>
       </c>
       <c r="I54" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="J54" s="9"/>
       <c r="K54" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.9604848767184444</v>
       </c>
       <c r="L54" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2.2977617963860702E-2</v>
       </c>
       <c r="M54" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>9.1708601644401103E-3</v>
       </c>
       <c r="N54" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5.9247612900929928E-3</v>
       </c>
       <c r="O54" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1.4418838631617599E-3</v>
       </c>
       <c r="P54" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="Q54" s="9">
@@ -8566,32 +9131,32 @@
         <v>30274.86</v>
       </c>
       <c r="I55" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="J55" s="9"/>
       <c r="K55" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.94078783518734688</v>
       </c>
       <c r="L55" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3.8271688126716358E-2</v>
       </c>
       <c r="M55" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>9.0167221252220493E-3</v>
       </c>
       <c r="N55" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>7.3783991073782008E-3</v>
       </c>
       <c r="O55" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>4.5453554533365307E-3</v>
       </c>
       <c r="P55" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="Q55" s="9">
@@ -8632,32 +9197,32 @@
         <v>27062.94</v>
       </c>
       <c r="I56" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="J56" s="9"/>
       <c r="K56" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.94635320478854112</v>
       </c>
       <c r="L56" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3.6793489546959796E-2</v>
       </c>
       <c r="M56" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>6.1977745211717573E-3</v>
       </c>
       <c r="N56" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>7.5124875567842966E-3</v>
       </c>
       <c r="O56" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>3.1430435865430735E-3</v>
       </c>
       <c r="P56" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="Q56" s="9">
@@ -8698,32 +9263,32 @@
         <v>22846.65</v>
       </c>
       <c r="I57" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="J57" s="9"/>
       <c r="K57" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.95531467414259863</v>
       </c>
       <c r="L57" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2.8655404621684137E-2</v>
       </c>
       <c r="M57" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>6.0380843581006394E-3</v>
       </c>
       <c r="N57" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>7.1726051740627177E-3</v>
       </c>
       <c r="O57" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>2.8192317035539123E-3</v>
       </c>
       <c r="P57" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="Q57" s="9">
@@ -8764,32 +9329,32 @@
         <v>19644.48</v>
       </c>
       <c r="I58" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="J58" s="9"/>
       <c r="K58" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.95100099366335977</v>
       </c>
       <c r="L58" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3.318743993223542E-2</v>
       </c>
       <c r="M58" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>5.6580779944289698E-3</v>
       </c>
       <c r="N58" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>7.5665021420775703E-3</v>
       </c>
       <c r="O58" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>2.5869862678981575E-3</v>
       </c>
       <c r="P58" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.99999999999999978</v>
       </c>
       <c r="Q58" s="9">
@@ -8830,32 +9395,32 @@
         <v>13095.53</v>
       </c>
       <c r="I59" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="J59" s="9"/>
       <c r="K59" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.93877834650449421</v>
       </c>
       <c r="L59" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>4.438308338799575E-2</v>
       </c>
       <c r="M59" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>6.970317352562286E-3</v>
       </c>
       <c r="N59" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>6.7389406919765747E-3</v>
       </c>
       <c r="O59" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>3.1293120629711049E-3</v>
       </c>
       <c r="P59" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="Q59" s="9">
@@ -8896,32 +9461,32 @@
         <v>15942.81</v>
       </c>
       <c r="I60" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="J60" s="9"/>
       <c r="K60" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.94101039904508688</v>
       </c>
       <c r="L60" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>4.1403617053706342E-2</v>
       </c>
       <c r="M60" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>8.6308498940901885E-3</v>
       </c>
       <c r="N60" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>3.1217834246284066E-3</v>
       </c>
       <c r="O60" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5.8333505824882817E-3</v>
       </c>
       <c r="P60" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="Q60" s="9">
@@ -8961,32 +9526,32 @@
         <v>10041.532999999999</v>
       </c>
       <c r="I61" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="J61" s="9"/>
       <c r="K61" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.97645265917066648</v>
       </c>
       <c r="L61" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.172829885635988E-2</v>
       </c>
       <c r="M61" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>9.2990084282947635E-3</v>
       </c>
       <c r="N61" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5.6351953431811662E-4</v>
       </c>
       <c r="O61" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1.9565140103607686E-3</v>
       </c>
       <c r="P61" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="Q61" s="9">
@@ -9027,32 +9592,32 @@
         <v>3685.21729</v>
       </c>
       <c r="I62" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="J62" s="9"/>
       <c r="K62" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.97311187856713877</v>
       </c>
       <c r="L62" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.8241214753445381E-2</v>
       </c>
       <c r="M62" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>5.8920487698026621E-3</v>
       </c>
       <c r="N62" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2.0480881874946374E-3</v>
       </c>
       <c r="O62" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>7.0676972211861078E-4</v>
       </c>
       <c r="P62" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="Q62" s="9">
@@ -9093,32 +9658,32 @@
         <v>3256.9820800000002</v>
       </c>
       <c r="I63" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="J63" s="9"/>
       <c r="K63" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.98320498281648516</v>
       </c>
       <c r="L63" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>7.7209942770087329E-3</v>
       </c>
       <c r="M63" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>5.4315404768822059E-3</v>
       </c>
       <c r="N63" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>3.0098661150754625E-3</v>
       </c>
       <c r="O63" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>6.3261631454846693E-4</v>
       </c>
       <c r="P63" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="Q63" s="9">
@@ -9159,32 +9724,32 @@
         <v>6009.0791600000002</v>
       </c>
       <c r="I64" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="J64" s="9"/>
       <c r="K64" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.96715370446209925</v>
       </c>
       <c r="L64" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2.1226203982974323E-2</v>
       </c>
       <c r="M64" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>3.8173103381117716E-3</v>
       </c>
       <c r="N64" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5.8299664669419996E-3</v>
       </c>
       <c r="O64" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1.9728147498725909E-3</v>
       </c>
       <c r="P64" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="Q64" s="9">
@@ -9225,32 +9790,32 @@
         <v>1096.74937</v>
       </c>
       <c r="I65" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>-9.9999999747524271E-6</v>
       </c>
       <c r="J65" s="9"/>
       <c r="K65" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.94892678169489175</v>
       </c>
       <c r="L65" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3.6468030977761128E-2</v>
       </c>
       <c r="M65" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>6.8421466246203549E-3</v>
       </c>
       <c r="N65" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>4.4835858898191116E-3</v>
       </c>
       <c r="O65" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>3.2794639307611364E-3</v>
       </c>
       <c r="P65" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1.0000000091178534</v>
       </c>
       <c r="Q65" s="9">
@@ -9296,32 +9861,32 @@
         <v>2731.11501</v>
       </c>
       <c r="I66" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="J66" s="9"/>
       <c r="K66" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.94773925686857119</v>
       </c>
       <c r="L66" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3.6146408935008562E-2</v>
       </c>
       <c r="M66" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>7.333484648821143E-3</v>
       </c>
       <c r="N66" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.4279845358837525E-3</v>
       </c>
       <c r="O66" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>7.3528650117154907E-3</v>
       </c>
       <c r="P66" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="Q66" s="9">
@@ -9367,32 +9932,32 @@
         <v>7010.6164500000004</v>
       </c>
       <c r="I67" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="J67" s="9"/>
       <c r="K67" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.95603431706779496</v>
       </c>
       <c r="L67" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2.9619811821255747E-2</v>
       </c>
       <c r="M67" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>7.4325261368420742E-3</v>
       </c>
       <c r="N67" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>4.9477532036430261E-3</v>
       </c>
       <c r="O67" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1.9655917704640654E-3</v>
       </c>
       <c r="P67" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="Q67" s="9">
@@ -9433,32 +9998,32 @@
         <v>636.69928000000004</v>
       </c>
       <c r="I68" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="J68" s="9"/>
       <c r="K68" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.971848970835965</v>
       </c>
       <c r="L68" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.5008278319397501E-2</v>
       </c>
       <c r="M68" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.092708947307118E-2</v>
       </c>
       <c r="N68" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2.0555072718159819E-3</v>
       </c>
       <c r="O68" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1.6015409975019917E-4</v>
       </c>
       <c r="P68" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="Q68" s="9">
@@ -9499,32 +10064,32 @@
         <v>717.46743000000004</v>
       </c>
       <c r="I69" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="J69" s="9"/>
       <c r="K69" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.95569814228361549</v>
       </c>
       <c r="L69" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3.1377758848230922E-2</v>
       </c>
       <c r="M69" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.2576431518292056E-2</v>
       </c>
       <c r="N69" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2.7120394858899725E-4</v>
       </c>
       <c r="O69" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>7.6463401272445206E-5</v>
       </c>
       <c r="P69" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="Q69" s="9">
@@ -9565,32 +10130,32 @@
         <v>541.16006000000004</v>
       </c>
       <c r="I70" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="J70" s="9"/>
       <c r="K70" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.95558175523892119</v>
       </c>
       <c r="L70" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.9889235728150375E-2</v>
       </c>
       <c r="M70" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>9.323988174589232E-3</v>
       </c>
       <c r="N70" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.2494233221867851E-2</v>
       </c>
       <c r="O70" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>2.7107876364711762E-3</v>
       </c>
       <c r="P70" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.99999999999999978</v>
       </c>
       <c r="Q70" s="9">
@@ -9631,32 +10196,32 @@
         <v>475.66300000000001</v>
       </c>
       <c r="I71" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="J71" s="9"/>
       <c r="K71" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.8616758293161334</v>
       </c>
       <c r="L71" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.12120595884060774</v>
       </c>
       <c r="M71" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.3096793317958303E-2</v>
       </c>
       <c r="N71" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2.387047132108236E-3</v>
       </c>
       <c r="O71" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1.6343713931922391E-3</v>
       </c>
       <c r="P71" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="Q71" s="9">
@@ -9697,32 +10262,32 @@
         <v>474.97822374839996</v>
       </c>
       <c r="I72" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="J72" s="9"/>
       <c r="K72" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.91150225110474536</v>
       </c>
       <c r="L72" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>6.8806225210256478E-2</v>
       </c>
       <c r="M72" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.4536566445954375E-2</v>
       </c>
       <c r="N72" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>4.4588755852559957E-3</v>
       </c>
       <c r="O72" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>6.9608165378784643E-4</v>
       </c>
       <c r="P72" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="Q72" s="9">
@@ -9731,7 +10296,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="13">
+    <mergeCell ref="U14:U15"/>
+    <mergeCell ref="V14:V15"/>
     <mergeCell ref="E14:I14"/>
     <mergeCell ref="A10:M13"/>
     <mergeCell ref="K14:O14"/>
@@ -9740,8 +10307,16 @@
     <mergeCell ref="A21:A28"/>
     <mergeCell ref="A29:A35"/>
     <mergeCell ref="A36:A40"/>
+    <mergeCell ref="AB19:AI19"/>
+    <mergeCell ref="Z19:Z20"/>
+    <mergeCell ref="AA19:AA20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="AB21:AI25">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
     <tablePart r:id="rId1"/>
@@ -9755,8 +10330,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W71"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView showGridLines="0" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -10891,7 +11466,7 @@
       <c r="A38" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="156">
+      <c r="B38" s="154">
         <f>[1]!s_stm07_bs(A22,"155",$A$12,1,100000000)-B37</f>
         <v>0</v>
       </c>

--- a/类信贷测算/【东吴银行马婷婷】上市银行信贷类非标投资资产计提测算final-V2.xlsx
+++ b/类信贷测算/【东吴银行马婷婷】上市银行信贷类非标投资资产计提测算final-V2.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="245">
   <si>
     <t>-</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2582,6 +2582,18 @@
   </si>
   <si>
     <t>实际减值准备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷款减值准备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷款总额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拨贷比</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3246,6 +3258,11 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3282,6 +3299,36 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3303,41 +3350,6 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="百分比" xfId="2" builtinId="5"/>
@@ -3345,16 +3357,6 @@
     <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="9">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3494,6 +3496,16 @@
         <name val="Times New Roman"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3534,28 +3546,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:B7" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:B7" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A3:B7">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" name="假设：类信贷非标资产占“资管、信托或其他非标资产”的比重" dataDxfId="6"/>
-    <tableColumn id="2" name=" " dataDxfId="5"/>
+    <tableColumn id="1" name="假设：类信贷非标资产占“资管、信托或其他非标资产”的比重" dataDxfId="5"/>
+    <tableColumn id="2" name=" " dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="D3:E8" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="D3:E8" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <autoFilter ref="D3:E8">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" name="分类" dataDxfId="2"/>
-    <tableColumn id="2" name="不良贷款拨备计提指导标准" dataDxfId="1"/>
+    <tableColumn id="1" name="分类" dataDxfId="1"/>
+    <tableColumn id="2" name="不良贷款拨备计提指导标准" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3883,18 +3895,18 @@
       <c r="B8" s="76"/>
       <c r="C8" s="76"/>
       <c r="D8" s="101"/>
-      <c r="E8" s="170" t="str">
+      <c r="E8" s="175" t="str">
         <f>非标类信贷!P15</f>
         <v>类信贷非标投资测算计提加总</v>
       </c>
-      <c r="F8" s="172" t="s">
+      <c r="F8" s="177" t="s">
         <v>221</v>
       </c>
-      <c r="G8" s="174" t="s">
+      <c r="G8" s="179" t="s">
         <v>222</v>
       </c>
       <c r="H8" s="101"/>
-      <c r="I8" s="176" t="s">
+      <c r="I8" s="181" t="s">
         <v>218</v>
       </c>
     </row>
@@ -3908,16 +3920,16 @@
       <c r="D9" s="149" t="s">
         <v>224</v>
       </c>
-      <c r="E9" s="171"/>
-      <c r="F9" s="173"/>
-      <c r="G9" s="175"/>
+      <c r="E9" s="176"/>
+      <c r="F9" s="178"/>
+      <c r="G9" s="180"/>
       <c r="H9" s="141" t="s">
         <v>219</v>
       </c>
-      <c r="I9" s="177"/>
+      <c r="I9" s="182"/>
     </row>
     <row r="10" spans="2:10" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B10" s="178" t="s">
+      <c r="B10" s="183" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="151" t="s">
@@ -3950,7 +3962,7 @@
       <c r="J10" s="153"/>
     </row>
     <row r="11" spans="2:10" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B11" s="168"/>
+      <c r="B11" s="173"/>
       <c r="C11" s="151" t="s">
         <v>14</v>
       </c>
@@ -3981,7 +3993,7 @@
       <c r="J11" s="153"/>
     </row>
     <row r="12" spans="2:10" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B12" s="168"/>
+      <c r="B12" s="173"/>
       <c r="C12" s="151" t="s">
         <v>15</v>
       </c>
@@ -4012,7 +4024,7 @@
       <c r="J12" s="153"/>
     </row>
     <row r="13" spans="2:10" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B13" s="168"/>
+      <c r="B13" s="173"/>
       <c r="C13" s="151" t="s">
         <v>16</v>
       </c>
@@ -4043,7 +4055,7 @@
       <c r="J13" s="153"/>
     </row>
     <row r="14" spans="2:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="169"/>
+      <c r="B14" s="174"/>
       <c r="C14" s="152" t="s">
         <v>17</v>
       </c>
@@ -4074,7 +4086,7 @@
       <c r="J14" s="153"/>
     </row>
     <row r="15" spans="2:10" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B15" s="178" t="s">
+      <c r="B15" s="183" t="s">
         <v>39</v>
       </c>
       <c r="C15" s="76" t="s">
@@ -4107,7 +4119,7 @@
       <c r="J15" s="153"/>
     </row>
     <row r="16" spans="2:10" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B16" s="168"/>
+      <c r="B16" s="173"/>
       <c r="C16" s="151" t="s">
         <v>19</v>
       </c>
@@ -4138,7 +4150,7 @@
       <c r="J16" s="153"/>
     </row>
     <row r="17" spans="2:10" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B17" s="168"/>
+      <c r="B17" s="173"/>
       <c r="C17" s="151" t="s">
         <v>20</v>
       </c>
@@ -4169,7 +4181,7 @@
       <c r="J17" s="153"/>
     </row>
     <row r="18" spans="2:10" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B18" s="168"/>
+      <c r="B18" s="173"/>
       <c r="C18" s="151" t="s">
         <v>21</v>
       </c>
@@ -4200,7 +4212,7 @@
       <c r="J18" s="153"/>
     </row>
     <row r="19" spans="2:10" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B19" s="168"/>
+      <c r="B19" s="173"/>
       <c r="C19" s="151" t="s">
         <v>22</v>
       </c>
@@ -4231,7 +4243,7 @@
       <c r="J19" s="153"/>
     </row>
     <row r="20" spans="2:10" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B20" s="168"/>
+      <c r="B20" s="173"/>
       <c r="C20" s="151" t="s">
         <v>23</v>
       </c>
@@ -4262,7 +4274,7 @@
       <c r="J20" s="153"/>
     </row>
     <row r="21" spans="2:10" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B21" s="168"/>
+      <c r="B21" s="173"/>
       <c r="C21" s="151" t="s">
         <v>24</v>
       </c>
@@ -4293,7 +4305,7 @@
       <c r="J21" s="153"/>
     </row>
     <row r="22" spans="2:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="169"/>
+      <c r="B22" s="174"/>
       <c r="C22" s="152" t="s">
         <v>25</v>
       </c>
@@ -4324,7 +4336,7 @@
       <c r="J22" s="153"/>
     </row>
     <row r="23" spans="2:10" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B23" s="179" t="s">
+      <c r="B23" s="184" t="s">
         <v>52</v>
       </c>
       <c r="C23" s="76" t="s">
@@ -4357,7 +4369,7 @@
       <c r="J23" s="153"/>
     </row>
     <row r="24" spans="2:10" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B24" s="168"/>
+      <c r="B24" s="173"/>
       <c r="C24" s="151" t="s">
         <v>27</v>
       </c>
@@ -4388,7 +4400,7 @@
       <c r="J24" s="153"/>
     </row>
     <row r="25" spans="2:10" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B25" s="168"/>
+      <c r="B25" s="173"/>
       <c r="C25" s="151" t="s">
         <v>28</v>
       </c>
@@ -4419,7 +4431,7 @@
       <c r="J25" s="153"/>
     </row>
     <row r="26" spans="2:10" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B26" s="168"/>
+      <c r="B26" s="173"/>
       <c r="C26" s="151" t="s">
         <v>29</v>
       </c>
@@ -4450,7 +4462,7 @@
       <c r="J26" s="153"/>
     </row>
     <row r="27" spans="2:10" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B27" s="168"/>
+      <c r="B27" s="173"/>
       <c r="C27" s="151" t="s">
         <v>30</v>
       </c>
@@ -4481,7 +4493,7 @@
       <c r="J27" s="153"/>
     </row>
     <row r="28" spans="2:10" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B28" s="168"/>
+      <c r="B28" s="173"/>
       <c r="C28" s="151" t="s">
         <v>31</v>
       </c>
@@ -4512,7 +4524,7 @@
       <c r="J28" s="153"/>
     </row>
     <row r="29" spans="2:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="169"/>
+      <c r="B29" s="174"/>
       <c r="C29" s="152" t="s">
         <v>32</v>
       </c>
@@ -4543,7 +4555,7 @@
       <c r="J29" s="153"/>
     </row>
     <row r="30" spans="2:10" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B30" s="168" t="s">
+      <c r="B30" s="173" t="s">
         <v>10</v>
       </c>
       <c r="C30" s="76" t="s">
@@ -4576,7 +4588,7 @@
       <c r="J30" s="153"/>
     </row>
     <row r="31" spans="2:10" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B31" s="168"/>
+      <c r="B31" s="173"/>
       <c r="C31" s="151" t="s">
         <v>34</v>
       </c>
@@ -4607,7 +4619,7 @@
       <c r="J31" s="153"/>
     </row>
     <row r="32" spans="2:10" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B32" s="168"/>
+      <c r="B32" s="173"/>
       <c r="C32" s="151" t="s">
         <v>35</v>
       </c>
@@ -4638,7 +4650,7 @@
       <c r="J32" s="153"/>
     </row>
     <row r="33" spans="2:10" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B33" s="168"/>
+      <c r="B33" s="173"/>
       <c r="C33" s="151" t="s">
         <v>36</v>
       </c>
@@ -4669,7 +4681,7 @@
       <c r="J33" s="153"/>
     </row>
     <row r="34" spans="2:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="169"/>
+      <c r="B34" s="174"/>
       <c r="C34" s="152" t="s">
         <v>37</v>
       </c>
@@ -4841,7 +4853,7 @@
       </c>
     </row>
     <row r="10" spans="2:8" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B10" s="178" t="s">
+      <c r="B10" s="183" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="83" t="s">
@@ -4869,7 +4881,7 @@
       </c>
     </row>
     <row r="11" spans="2:8" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B11" s="168"/>
+      <c r="B11" s="173"/>
       <c r="C11" s="83" t="s">
         <v>14</v>
       </c>
@@ -4895,7 +4907,7 @@
       </c>
     </row>
     <row r="12" spans="2:8" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B12" s="168"/>
+      <c r="B12" s="173"/>
       <c r="C12" s="83" t="s">
         <v>15</v>
       </c>
@@ -4921,7 +4933,7 @@
       </c>
     </row>
     <row r="13" spans="2:8" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B13" s="168"/>
+      <c r="B13" s="173"/>
       <c r="C13" s="83" t="s">
         <v>16</v>
       </c>
@@ -4947,7 +4959,7 @@
       </c>
     </row>
     <row r="14" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="169"/>
+      <c r="B14" s="174"/>
       <c r="C14" s="84" t="s">
         <v>17</v>
       </c>
@@ -4973,7 +4985,7 @@
       </c>
     </row>
     <row r="15" spans="2:8" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B15" s="178" t="s">
+      <c r="B15" s="183" t="s">
         <v>39</v>
       </c>
       <c r="C15" s="71" t="s">
@@ -5001,7 +5013,7 @@
       </c>
     </row>
     <row r="16" spans="2:8" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B16" s="168"/>
+      <c r="B16" s="173"/>
       <c r="C16" s="83" t="s">
         <v>19</v>
       </c>
@@ -5027,7 +5039,7 @@
       </c>
     </row>
     <row r="17" spans="2:8" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B17" s="168"/>
+      <c r="B17" s="173"/>
       <c r="C17" s="83" t="s">
         <v>20</v>
       </c>
@@ -5053,7 +5065,7 @@
       </c>
     </row>
     <row r="18" spans="2:8" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B18" s="168"/>
+      <c r="B18" s="173"/>
       <c r="C18" s="83" t="s">
         <v>21</v>
       </c>
@@ -5079,7 +5091,7 @@
       </c>
     </row>
     <row r="19" spans="2:8" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B19" s="168"/>
+      <c r="B19" s="173"/>
       <c r="C19" s="83" t="s">
         <v>22</v>
       </c>
@@ -5105,7 +5117,7 @@
       </c>
     </row>
     <row r="20" spans="2:8" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B20" s="168"/>
+      <c r="B20" s="173"/>
       <c r="C20" s="83" t="s">
         <v>23</v>
       </c>
@@ -5131,7 +5143,7 @@
       </c>
     </row>
     <row r="21" spans="2:8" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B21" s="168"/>
+      <c r="B21" s="173"/>
       <c r="C21" s="83" t="s">
         <v>24</v>
       </c>
@@ -5157,7 +5169,7 @@
       </c>
     </row>
     <row r="22" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="169"/>
+      <c r="B22" s="174"/>
       <c r="C22" s="84" t="s">
         <v>25</v>
       </c>
@@ -5183,7 +5195,7 @@
       </c>
     </row>
     <row r="23" spans="2:8" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B23" s="179" t="s">
+      <c r="B23" s="184" t="s">
         <v>52</v>
       </c>
       <c r="C23" s="71" t="s">
@@ -5211,7 +5223,7 @@
       </c>
     </row>
     <row r="24" spans="2:8" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B24" s="168"/>
+      <c r="B24" s="173"/>
       <c r="C24" s="83" t="s">
         <v>27</v>
       </c>
@@ -5237,7 +5249,7 @@
       </c>
     </row>
     <row r="25" spans="2:8" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B25" s="168"/>
+      <c r="B25" s="173"/>
       <c r="C25" s="83" t="s">
         <v>28</v>
       </c>
@@ -5263,7 +5275,7 @@
       </c>
     </row>
     <row r="26" spans="2:8" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B26" s="168"/>
+      <c r="B26" s="173"/>
       <c r="C26" s="83" t="s">
         <v>29</v>
       </c>
@@ -5289,7 +5301,7 @@
       </c>
     </row>
     <row r="27" spans="2:8" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B27" s="168"/>
+      <c r="B27" s="173"/>
       <c r="C27" s="83" t="s">
         <v>30</v>
       </c>
@@ -5315,7 +5327,7 @@
       </c>
     </row>
     <row r="28" spans="2:8" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B28" s="168"/>
+      <c r="B28" s="173"/>
       <c r="C28" s="83" t="s">
         <v>31</v>
       </c>
@@ -5341,7 +5353,7 @@
       </c>
     </row>
     <row r="29" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="169"/>
+      <c r="B29" s="174"/>
       <c r="C29" s="84" t="s">
         <v>32</v>
       </c>
@@ -5367,7 +5379,7 @@
       </c>
     </row>
     <row r="30" spans="2:8" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B30" s="168" t="s">
+      <c r="B30" s="173" t="s">
         <v>10</v>
       </c>
       <c r="C30" s="71" t="s">
@@ -5395,7 +5407,7 @@
       </c>
     </row>
     <row r="31" spans="2:8" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B31" s="168"/>
+      <c r="B31" s="173"/>
       <c r="C31" s="83" t="s">
         <v>34</v>
       </c>
@@ -5421,7 +5433,7 @@
       </c>
     </row>
     <row r="32" spans="2:8" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B32" s="168"/>
+      <c r="B32" s="173"/>
       <c r="C32" s="83" t="s">
         <v>35</v>
       </c>
@@ -5447,7 +5459,7 @@
       </c>
     </row>
     <row r="33" spans="2:11" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="B33" s="168"/>
+      <c r="B33" s="173"/>
       <c r="C33" s="83" t="s">
         <v>36</v>
       </c>
@@ -5473,7 +5485,7 @@
       </c>
     </row>
     <row r="34" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="169"/>
+      <c r="B34" s="174"/>
       <c r="C34" s="84" t="s">
         <v>37</v>
       </c>
@@ -5551,8 +5563,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AK72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="S16" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="W37" sqref="W37"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N38" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="T48" sqref="T48:T72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -5585,14 +5597,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A1" s="192" t="s">
+      <c r="A1" s="194" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="192"/>
+      <c r="B1" s="194"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A2" s="192"/>
-      <c r="B2" s="192"/>
+      <c r="A2" s="194"/>
+      <c r="B2" s="194"/>
     </row>
     <row r="3" spans="1:27" ht="54" x14ac:dyDescent="0.4">
       <c r="A3" s="100" t="s">
@@ -5680,96 +5692,96 @@
       <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A10" s="189" t="s">
+      <c r="A10" s="191" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="189"/>
-      <c r="C10" s="189"/>
-      <c r="D10" s="189"/>
-      <c r="E10" s="189"/>
-      <c r="F10" s="189"/>
-      <c r="G10" s="189"/>
-      <c r="H10" s="189"/>
-      <c r="I10" s="189"/>
-      <c r="J10" s="189"/>
-      <c r="K10" s="189"/>
-      <c r="L10" s="189"/>
-      <c r="M10" s="189"/>
+      <c r="B10" s="191"/>
+      <c r="C10" s="191"/>
+      <c r="D10" s="191"/>
+      <c r="E10" s="191"/>
+      <c r="F10" s="191"/>
+      <c r="G10" s="191"/>
+      <c r="H10" s="191"/>
+      <c r="I10" s="191"/>
+      <c r="J10" s="191"/>
+      <c r="K10" s="191"/>
+      <c r="L10" s="191"/>
+      <c r="M10" s="191"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A11" s="189"/>
-      <c r="B11" s="189"/>
-      <c r="C11" s="189"/>
-      <c r="D11" s="189"/>
-      <c r="E11" s="189"/>
-      <c r="F11" s="189"/>
-      <c r="G11" s="189"/>
-      <c r="H11" s="189"/>
-      <c r="I11" s="189"/>
-      <c r="J11" s="189"/>
-      <c r="K11" s="189"/>
-      <c r="L11" s="189"/>
-      <c r="M11" s="189"/>
+      <c r="A11" s="191"/>
+      <c r="B11" s="191"/>
+      <c r="C11" s="191"/>
+      <c r="D11" s="191"/>
+      <c r="E11" s="191"/>
+      <c r="F11" s="191"/>
+      <c r="G11" s="191"/>
+      <c r="H11" s="191"/>
+      <c r="I11" s="191"/>
+      <c r="J11" s="191"/>
+      <c r="K11" s="191"/>
+      <c r="L11" s="191"/>
+      <c r="M11" s="191"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A12" s="189"/>
-      <c r="B12" s="189"/>
-      <c r="C12" s="189"/>
-      <c r="D12" s="189"/>
-      <c r="E12" s="189"/>
-      <c r="F12" s="189"/>
-      <c r="G12" s="189"/>
-      <c r="H12" s="189"/>
-      <c r="I12" s="189"/>
-      <c r="J12" s="189"/>
-      <c r="K12" s="189"/>
-      <c r="L12" s="189"/>
-      <c r="M12" s="189"/>
+      <c r="A12" s="191"/>
+      <c r="B12" s="191"/>
+      <c r="C12" s="191"/>
+      <c r="D12" s="191"/>
+      <c r="E12" s="191"/>
+      <c r="F12" s="191"/>
+      <c r="G12" s="191"/>
+      <c r="H12" s="191"/>
+      <c r="I12" s="191"/>
+      <c r="J12" s="191"/>
+      <c r="K12" s="191"/>
+      <c r="L12" s="191"/>
+      <c r="M12" s="191"/>
     </row>
     <row r="13" spans="1:27" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="189"/>
-      <c r="B13" s="189"/>
-      <c r="C13" s="189"/>
-      <c r="D13" s="189"/>
-      <c r="E13" s="189"/>
-      <c r="F13" s="189"/>
-      <c r="G13" s="189"/>
-      <c r="H13" s="189"/>
-      <c r="I13" s="189"/>
-      <c r="J13" s="189"/>
-      <c r="K13" s="189"/>
-      <c r="L13" s="189"/>
-      <c r="M13" s="189"/>
+      <c r="A13" s="191"/>
+      <c r="B13" s="191"/>
+      <c r="C13" s="191"/>
+      <c r="D13" s="191"/>
+      <c r="E13" s="191"/>
+      <c r="F13" s="191"/>
+      <c r="G13" s="191"/>
+      <c r="H13" s="191"/>
+      <c r="I13" s="191"/>
+      <c r="J13" s="191"/>
+      <c r="K13" s="191"/>
+      <c r="L13" s="191"/>
+      <c r="M13" s="191"/>
     </row>
     <row r="14" spans="1:27" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A14" s="76"/>
       <c r="B14" s="72"/>
       <c r="C14" s="72"/>
       <c r="D14" s="72"/>
-      <c r="E14" s="187" t="s">
+      <c r="E14" s="189" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="188"/>
-      <c r="G14" s="188"/>
-      <c r="H14" s="188"/>
-      <c r="I14" s="188"/>
+      <c r="F14" s="190"/>
+      <c r="G14" s="190"/>
+      <c r="H14" s="190"/>
+      <c r="I14" s="190"/>
       <c r="J14" s="96"/>
-      <c r="K14" s="190" t="s">
+      <c r="K14" s="192" t="s">
         <v>66</v>
       </c>
-      <c r="L14" s="188"/>
-      <c r="M14" s="188"/>
-      <c r="N14" s="188"/>
-      <c r="O14" s="191"/>
+      <c r="L14" s="190"/>
+      <c r="M14" s="190"/>
+      <c r="N14" s="190"/>
+      <c r="O14" s="193"/>
       <c r="P14" s="71"/>
       <c r="Q14" s="72"/>
       <c r="R14" s="71"/>
       <c r="S14" s="72"/>
       <c r="T14" s="73"/>
-      <c r="U14" s="193" t="s">
+      <c r="U14" s="185" t="s">
         <v>215</v>
       </c>
-      <c r="V14" s="195" t="s">
+      <c r="V14" s="187" t="s">
         <v>220</v>
       </c>
       <c r="W14" s="132"/>
@@ -5834,8 +5846,8 @@
       <c r="T15" s="126" t="s">
         <v>218</v>
       </c>
-      <c r="U15" s="194"/>
-      <c r="V15" s="196"/>
+      <c r="U15" s="186"/>
+      <c r="V15" s="188"/>
       <c r="W15" s="143" t="s">
         <v>219</v>
       </c>
@@ -5844,7 +5856,7 @@
       </c>
     </row>
     <row r="16" spans="1:27" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A16" s="178" t="s">
+      <c r="A16" s="183" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="71" t="s">
@@ -5940,7 +5952,7 @@
       <c r="AA16" s="3"/>
     </row>
     <row r="17" spans="1:37" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A17" s="168"/>
+      <c r="A17" s="173"/>
       <c r="B17" s="83" t="s">
         <v>14</v>
       </c>
@@ -6036,7 +6048,7 @@
       </c>
     </row>
     <row r="18" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="168"/>
+      <c r="A18" s="173"/>
       <c r="B18" s="83" t="s">
         <v>15</v>
       </c>
@@ -6130,7 +6142,7 @@
       <c r="AA18" s="3"/>
     </row>
     <row r="19" spans="1:37" ht="14.65" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="168"/>
+      <c r="A19" s="173"/>
       <c r="B19" s="83" t="s">
         <v>16</v>
       </c>
@@ -6221,25 +6233,25 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Z19" s="183" t="s">
+      <c r="Z19" s="198" t="s">
         <v>230</v>
       </c>
-      <c r="AA19" s="185" t="s">
+      <c r="AA19" s="200" t="s">
         <v>231</v>
       </c>
-      <c r="AB19" s="180" t="s">
+      <c r="AB19" s="195" t="s">
         <v>232</v>
       </c>
-      <c r="AC19" s="181"/>
-      <c r="AD19" s="181"/>
-      <c r="AE19" s="181"/>
-      <c r="AF19" s="181"/>
-      <c r="AG19" s="181"/>
-      <c r="AH19" s="181"/>
-      <c r="AI19" s="182"/>
+      <c r="AC19" s="196"/>
+      <c r="AD19" s="196"/>
+      <c r="AE19" s="196"/>
+      <c r="AF19" s="196"/>
+      <c r="AG19" s="196"/>
+      <c r="AH19" s="196"/>
+      <c r="AI19" s="197"/>
     </row>
     <row r="20" spans="1:37" ht="14.65" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="169"/>
+      <c r="A20" s="174"/>
       <c r="B20" s="84" t="s">
         <v>17</v>
       </c>
@@ -6330,8 +6342,8 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Z20" s="184"/>
-      <c r="AA20" s="186"/>
+      <c r="Z20" s="199"/>
+      <c r="AA20" s="201"/>
       <c r="AB20" s="159">
         <v>0.05</v>
       </c>
@@ -6360,7 +6372,7 @@
       <c r="AK20" s="2"/>
     </row>
     <row r="21" spans="1:37" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A21" s="178" t="s">
+      <c r="A21" s="183" t="s">
         <v>43</v>
       </c>
       <c r="B21" s="83" t="s">
@@ -6493,7 +6505,7 @@
       </c>
     </row>
     <row r="22" spans="1:37" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A22" s="168"/>
+      <c r="A22" s="173"/>
       <c r="B22" s="83" t="s">
         <v>19</v>
       </c>
@@ -6623,7 +6635,7 @@
       </c>
     </row>
     <row r="23" spans="1:37" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A23" s="168"/>
+      <c r="A23" s="173"/>
       <c r="B23" s="83" t="s">
         <v>20</v>
       </c>
@@ -6753,7 +6765,7 @@
       </c>
     </row>
     <row r="24" spans="1:37" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A24" s="168"/>
+      <c r="A24" s="173"/>
       <c r="B24" s="83" t="s">
         <v>21</v>
       </c>
@@ -6883,7 +6895,7 @@
       </c>
     </row>
     <row r="25" spans="1:37" ht="14.65" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="168"/>
+      <c r="A25" s="173"/>
       <c r="B25" s="83" t="s">
         <v>22</v>
       </c>
@@ -7013,7 +7025,7 @@
       </c>
     </row>
     <row r="26" spans="1:37" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A26" s="168"/>
+      <c r="A26" s="173"/>
       <c r="B26" s="83" t="s">
         <v>23</v>
       </c>
@@ -7117,7 +7129,7 @@
       <c r="AK26" s="10"/>
     </row>
     <row r="27" spans="1:37" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A27" s="168"/>
+      <c r="A27" s="173"/>
       <c r="B27" s="83" t="s">
         <v>24</v>
       </c>
@@ -7221,7 +7233,7 @@
       <c r="AK27" s="10"/>
     </row>
     <row r="28" spans="1:37" ht="14.65" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="169"/>
+      <c r="A28" s="174"/>
       <c r="B28" s="83" t="s">
         <v>25</v>
       </c>
@@ -7315,23 +7327,23 @@
       <c r="Y28" s="109">
         <v>42916</v>
       </c>
-      <c r="Z28" s="197" t="s">
+      <c r="Z28" s="168" t="s">
         <v>233</v>
       </c>
-      <c r="AA28" s="199" t="s">
+      <c r="AA28" s="170" t="s">
         <v>237</v>
       </c>
-      <c r="AB28" s="200" t="s">
+      <c r="AB28" s="171" t="s">
         <v>238</v>
       </c>
       <c r="AC28" s="10"/>
-      <c r="AD28" s="200" t="s">
+      <c r="AD28" s="171" t="s">
         <v>239</v>
       </c>
-      <c r="AE28" s="200" t="s">
+      <c r="AE28" s="171" t="s">
         <v>240</v>
       </c>
-      <c r="AF28" s="201" t="s">
+      <c r="AF28" s="172" t="s">
         <v>241</v>
       </c>
       <c r="AG28" s="10"/>
@@ -7341,7 +7353,7 @@
       <c r="AK28" s="10"/>
     </row>
     <row r="29" spans="1:37" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A29" s="179" t="s">
+      <c r="A29" s="184" t="s">
         <v>52</v>
       </c>
       <c r="B29" s="71" t="s">
@@ -7438,10 +7450,10 @@
         <f>[1]!to_tradecode(Z29)</f>
         <v>600036</v>
       </c>
-      <c r="Z29" s="197" t="s">
+      <c r="Z29" s="168" t="s">
         <v>234</v>
       </c>
-      <c r="AA29" s="198">
+      <c r="AA29" s="169">
         <f>D21</f>
         <v>2838.41</v>
       </c>
@@ -7467,7 +7479,7 @@
       </c>
     </row>
     <row r="30" spans="1:37" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A30" s="168"/>
+      <c r="A30" s="173"/>
       <c r="B30" s="83" t="s">
         <v>27</v>
       </c>
@@ -7562,10 +7574,10 @@
         <f>[1]!to_tradecode(Z30)</f>
         <v>601998</v>
       </c>
-      <c r="Z30" s="197" t="s">
+      <c r="Z30" s="168" t="s">
         <v>235</v>
       </c>
-      <c r="AA30" s="198">
+      <c r="AA30" s="169">
         <f>D22</f>
         <v>3028.13</v>
       </c>
@@ -7591,7 +7603,7 @@
       </c>
     </row>
     <row r="31" spans="1:37" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A31" s="168"/>
+      <c r="A31" s="173"/>
       <c r="B31" s="83" t="s">
         <v>28</v>
       </c>
@@ -7686,10 +7698,10 @@
         <f>[1]!to_tradecode(Z31)</f>
         <v>601166</v>
       </c>
-      <c r="Z31" s="197" t="s">
+      <c r="Z31" s="168" t="s">
         <v>236</v>
       </c>
-      <c r="AA31" s="198">
+      <c r="AA31" s="169">
         <f>D25</f>
         <v>9212.0499999999993</v>
       </c>
@@ -7715,7 +7727,7 @@
       </c>
     </row>
     <row r="32" spans="1:37" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A32" s="168"/>
+      <c r="A32" s="173"/>
       <c r="B32" s="83" t="s">
         <v>29</v>
       </c>
@@ -7809,7 +7821,7 @@
       <c r="AA32" s="3"/>
     </row>
     <row r="33" spans="1:27" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A33" s="168"/>
+      <c r="A33" s="173"/>
       <c r="B33" s="83" t="s">
         <v>30</v>
       </c>
@@ -7903,7 +7915,7 @@
       <c r="AA33" s="3"/>
     </row>
     <row r="34" spans="1:27" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A34" s="168"/>
+      <c r="A34" s="173"/>
       <c r="B34" s="83" t="s">
         <v>31</v>
       </c>
@@ -7997,7 +8009,7 @@
       <c r="AA34" s="3"/>
     </row>
     <row r="35" spans="1:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="169"/>
+      <c r="A35" s="174"/>
       <c r="B35" s="84" t="s">
         <v>32</v>
       </c>
@@ -8090,7 +8102,7 @@
       <c r="AA35" s="3"/>
     </row>
     <row r="36" spans="1:27" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A36" s="168" t="s">
+      <c r="A36" s="173" t="s">
         <v>44</v>
       </c>
       <c r="B36" s="83" t="s">
@@ -8186,7 +8198,7 @@
       <c r="AA36" s="3"/>
     </row>
     <row r="37" spans="1:27" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A37" s="168"/>
+      <c r="A37" s="173"/>
       <c r="B37" s="83" t="s">
         <v>34</v>
       </c>
@@ -8280,7 +8292,7 @@
       <c r="AA37" s="3"/>
     </row>
     <row r="38" spans="1:27" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A38" s="168"/>
+      <c r="A38" s="173"/>
       <c r="B38" s="83" t="s">
         <v>35</v>
       </c>
@@ -8372,7 +8384,7 @@
       </c>
     </row>
     <row r="39" spans="1:27" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A39" s="168"/>
+      <c r="A39" s="173"/>
       <c r="B39" s="83" t="s">
         <v>36</v>
       </c>
@@ -8464,7 +8476,7 @@
       </c>
     </row>
     <row r="40" spans="1:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="169"/>
+      <c r="A40" s="174"/>
       <c r="B40" s="84" t="s">
         <v>37</v>
       </c>
@@ -8634,6 +8646,15 @@
       <c r="Q47" s="124" t="s">
         <v>216</v>
       </c>
+      <c r="R47" s="124" t="s">
+        <v>242</v>
+      </c>
+      <c r="S47" s="124" t="s">
+        <v>243</v>
+      </c>
+      <c r="T47" s="124" t="s">
+        <v>244</v>
+      </c>
       <c r="X47" s="6"/>
     </row>
     <row r="48" spans="1:27" ht="14.25" x14ac:dyDescent="0.4">
@@ -8701,8 +8722,20 @@
         <f>[1]!s_stm07_is(A48,"W30028333",A$46,1,100000000)*2</f>
         <v>3059.9</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="R48" s="4">
+        <f>[1]!s_stmnote_bank_22n(A48,$A$46,1,100000000)</f>
+        <v>3165.13</v>
+      </c>
+      <c r="S48" s="4">
+        <f>[1]!s_stmnote_bank_1n(A48,$A$46,1,100000000)</f>
+        <v>138659.09</v>
+      </c>
+      <c r="T48" s="10">
+        <f>R48/S48</f>
+        <v>2.2826703968704828E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="str">
         <f>[1]!to_tradecode(B49)</f>
         <v>601939</v>
@@ -8767,8 +8800,20 @@
         <f>[1]!s_stm07_is(A49,"W30028333",A$46,1,100000000)*2</f>
         <v>2766.78</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="R49" s="4">
+        <f>[1]!s_stmnote_bank_22n(A49,$A$46,1,100000000)</f>
+        <v>3022.91</v>
+      </c>
+      <c r="S49" s="4">
+        <f>[1]!s_stmnote_bank_1n(A49,$A$46,1,100000000)</f>
+        <v>125070.21</v>
+      </c>
+      <c r="T49" s="10">
+        <f t="shared" ref="T49:T72" si="33">R49/S49</f>
+        <v>2.4169704360454819E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="str">
         <f>[1]!to_tradecode(B50)</f>
         <v>601288</v>
@@ -8833,8 +8878,20 @@
         <f>[1]!s_stm07_is(A50,"W30028333",A$46,1,100000000)*2</f>
         <v>2171.86</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="R50" s="4">
+        <f>[1]!s_stmnote_bank_22n(A50,$A$46,1,100000000)</f>
+        <v>4152.79</v>
+      </c>
+      <c r="S50" s="4">
+        <f>[1]!s_stmnote_bank_1n(A50,$A$46,1,100000000)</f>
+        <v>104119.18</v>
+      </c>
+      <c r="T50" s="10">
+        <f t="shared" si="33"/>
+        <v>3.9884966439420674E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="str">
         <f>[1]!to_tradecode(B51)</f>
         <v>601988</v>
@@ -8899,8 +8956,20 @@
         <f>[1]!s_stm07_is(A51,"W30028333",A$46,1,100000000)*2</f>
         <v>2073.8000000000002</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="R51" s="4">
+        <f>[1]!s_stmnote_bank_22n(A51,$A$46,1,100000000)</f>
+        <v>2241.5500000000002</v>
+      </c>
+      <c r="S51" s="4">
+        <f>[1]!s_stmnote_bank_1n(A51,$A$46,1,100000000)</f>
+        <v>106507.03</v>
+      </c>
+      <c r="T51" s="10">
+        <f t="shared" si="33"/>
+        <v>2.1046028604872376E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="str">
         <f>[1]!to_tradecode(B52)</f>
         <v>601328</v>
@@ -8965,8 +9034,20 @@
         <f>[1]!s_stm07_is(A52,"W30028333",A$46,1,100000000)*2</f>
         <v>779.5</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="R52" s="4">
+        <f>[1]!s_stmnote_bank_22n(A52,$A$46,1,100000000)</f>
+        <v>996.05</v>
+      </c>
+      <c r="S52" s="4">
+        <f>[1]!s_stmnote_bank_1n(A52,$A$46,1,100000000)</f>
+        <v>43701.47</v>
+      </c>
+      <c r="T52" s="10">
+        <f t="shared" si="33"/>
+        <v>2.2792139486383409E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="str">
         <f>[1]!to_tradecode(B53)</f>
         <v>600036</v>
@@ -9031,8 +9112,20 @@
         <f>[1]!s_stm07_is(A53,"W30028333",A$46,1,100000000)*2</f>
         <v>785.18</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="R53" s="4">
+        <f>[1]!s_stmnote_bank_22n(A53,$A$46,1,100000000)</f>
+        <v>1358.44</v>
+      </c>
+      <c r="S53" s="4">
+        <f>[1]!s_stmnote_bank_1n(A53,$A$46,1,100000000)</f>
+        <v>35399.379999999997</v>
+      </c>
+      <c r="T53" s="10">
+        <f t="shared" si="33"/>
+        <v>3.8374683398409805E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="str">
         <f>[1]!to_tradecode(B54)</f>
         <v>601998</v>
@@ -9097,8 +9190,20 @@
         <f>[1]!s_stm07_is(A54,"W30028333",A$46,1,100000000)*2</f>
         <v>480.22</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="R54" s="4">
+        <f>[1]!s_stmnote_bank_22n(A54,$A$46,1,100000000)</f>
+        <v>781.99</v>
+      </c>
+      <c r="S54" s="4">
+        <f>[1]!s_stmnote_bank_1n(A54,$A$46,1,100000000)</f>
+        <v>30910.95</v>
+      </c>
+      <c r="T54" s="10">
+        <f t="shared" si="33"/>
+        <v>2.5298154860979683E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="str">
         <f>[1]!to_tradecode(B55)</f>
         <v>600000</v>
@@ -9163,8 +9268,20 @@
         <f>[1]!s_stm07_is(A55,"W30028333",A$46,1,100000000)*2</f>
         <v>563.29999999999995</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="R55" s="4">
+        <f>[1]!s_stmnote_bank_22n(A55,$A$46,1,100000000)</f>
+        <v>977.65</v>
+      </c>
+      <c r="S55" s="4">
+        <f>[1]!s_stmnote_bank_1n(A55,$A$46,1,100000000)</f>
+        <v>30274.86</v>
+      </c>
+      <c r="T55" s="10">
+        <f t="shared" si="33"/>
+        <v>3.2292469725706409E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="str">
         <f>[1]!to_tradecode(B56)</f>
         <v>600016</v>
@@ -9229,8 +9346,20 @@
         <f>[1]!s_stm07_is(A56,"W30028333",A$46,1,100000000)*2</f>
         <v>561.76</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="R56" s="4">
+        <f>[1]!s_stmnote_bank_22n(A56,$A$46,1,100000000)</f>
+        <v>699.33</v>
+      </c>
+      <c r="S56" s="4">
+        <f>[1]!s_stmnote_bank_1n(A56,$A$46,1,100000000)</f>
+        <v>27062.94</v>
+      </c>
+      <c r="T56" s="10">
+        <f t="shared" si="33"/>
+        <v>2.5840873164556404E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="str">
         <f>[1]!to_tradecode(B57)</f>
         <v>601166</v>
@@ -9295,8 +9424,20 @@
         <f>[1]!s_stm07_is(A57,"W30028333",A$46,1,100000000)*2</f>
         <v>632.02</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="R57" s="4">
+        <f>[1]!s_stmnote_bank_22n(A57,$A$46,1,100000000)</f>
+        <v>814.86</v>
+      </c>
+      <c r="S57" s="4">
+        <f>[1]!s_stmnote_bank_1n(A57,$A$46,1,100000000)</f>
+        <v>22846.65</v>
+      </c>
+      <c r="T57" s="10">
+        <f t="shared" si="33"/>
+        <v>3.5666498151807814E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="str">
         <f>[1]!to_tradecode(B58)</f>
         <v>601818</v>
@@ -9361,8 +9502,20 @@
         <f>[1]!s_stm07_is(A58,"W30028333",A$46,1,100000000)*2</f>
         <v>338.78</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="R58" s="4">
+        <f>[1]!s_stmnote_bank_22n(A58,$A$46,1,100000000)</f>
+        <v>472.67</v>
+      </c>
+      <c r="S58" s="4">
+        <f>[1]!s_stmnote_bank_1n(A58,$A$46,1,100000000)</f>
+        <v>19644.48</v>
+      </c>
+      <c r="T58" s="10">
+        <f t="shared" si="33"/>
+        <v>2.406121210640343E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="str">
         <f>[1]!to_tradecode(B59)</f>
         <v>600015</v>
@@ -9427,8 +9580,20 @@
         <f>[1]!s_stm07_is(A59,"W30028333",A$46,1,100000000)*2</f>
         <v>196.72</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="R59" s="4">
+        <f>[1]!s_stmnote_bank_22n(A59,$A$46,1,100000000)</f>
+        <v>347.58</v>
+      </c>
+      <c r="S59" s="4">
+        <f>[1]!s_stmnote_bank_1n(A59,$A$46,1,100000000)</f>
+        <v>13095.53</v>
+      </c>
+      <c r="T59" s="10">
+        <f t="shared" si="33"/>
+        <v>2.6541881084614367E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="str">
         <f>[1]!to_tradecode(B60)</f>
         <v>000001</v>
@@ -9493,8 +9658,20 @@
         <f>[1]!s_stm07_is(A60,"W30028333",A$46,1,100000000)*2</f>
         <v>251.08</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="R60" s="4">
+        <f>[1]!s_stmnote_bank_22n(A60,$A$46,1,100000000)</f>
+        <v>452.29</v>
+      </c>
+      <c r="S60" s="4">
+        <f>[1]!s_stmnote_bank_1n(A60,$A$46,1,100000000)</f>
+        <v>15942.81</v>
+      </c>
+      <c r="T60" s="10">
+        <f t="shared" si="33"/>
+        <v>2.8369528332834678E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="str">
         <f>[1]!to_tradecode(B61)</f>
         <v>601169</v>
@@ -9558,8 +9735,20 @@
         <f>[1]!s_stm07_is(A61,"W30028333",A$46,1,100000000)*2</f>
         <v>221.58</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="R61" s="4">
+        <f>[1]!s_stmnote_bank_22n(A61,$A$46,1,100000000)</f>
+        <v>312.14999999999998</v>
+      </c>
+      <c r="S61" s="4">
+        <f>[1]!s_stmnote_bank_1n(A61,$A$46,1,100000000)</f>
+        <v>10295.5</v>
+      </c>
+      <c r="T61" s="10">
+        <f t="shared" si="33"/>
+        <v>3.0319071438978194E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="str">
         <f>[1]!to_tradecode(B62)</f>
         <v>601009</v>
@@ -9624,8 +9813,20 @@
         <f>[1]!s_stm07_is(A62,"W30028333",A$46,1,100000000)*2</f>
         <v>102.09054</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="R62" s="4">
+        <f>[1]!s_stmnote_bank_22n(A62,$A$46,1,100000000)</f>
+        <v>143.4573</v>
+      </c>
+      <c r="S62" s="4">
+        <f>[1]!s_stmnote_bank_1n(A62,$A$46,1,100000000)</f>
+        <v>3685.21729</v>
+      </c>
+      <c r="T62" s="10">
+        <f t="shared" si="33"/>
+        <v>3.8927772424512855E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="str">
         <f>[1]!to_tradecode(B63)</f>
         <v>002142</v>
@@ -9690,8 +9891,20 @@
         <f>[1]!s_stm07_is(A63,"W30028333",A$46,1,100000000)*2</f>
         <v>95.309799999999996</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="R63" s="4">
+        <f>[1]!s_stmnote_bank_22n(A63,$A$46,1,100000000)</f>
+        <v>117.77978</v>
+      </c>
+      <c r="S63" s="4">
+        <f>[1]!s_stmnote_bank_1n(A63,$A$46,1,100000000)</f>
+        <v>3256.9820800000002</v>
+      </c>
+      <c r="T63" s="10">
+        <f t="shared" si="33"/>
+        <v>3.6162243791037378E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="str">
         <f>[1]!to_tradecode(B64)</f>
         <v>601229</v>
@@ -9756,6 +9969,18 @@
         <f>[1]!s_stm07_is(A64,"W30028333",A$46,1,100000000)*2</f>
         <v>155.91713999999999</v>
       </c>
+      <c r="R64" s="4">
+        <f>[1]!s_stmnote_bank_22n(A64,$A$46,1,100000000)</f>
+        <v>180.88937999999999</v>
+      </c>
+      <c r="S64" s="4">
+        <f>[1]!s_stmnote_bank_1n(A64,$A$46,1,100000000)</f>
+        <v>6009.0791600000002</v>
+      </c>
+      <c r="T64" s="10">
+        <f t="shared" si="33"/>
+        <v>3.0102678827083378E-2</v>
+      </c>
     </row>
     <row r="65" spans="1:23" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="str">
@@ -9822,8 +10047,18 @@
         <f>[1]!s_stm07_is(A65,"W30028333",A$46,1,100000000)*2</f>
         <v>38.0413</v>
       </c>
-      <c r="S65" s="11"/>
-      <c r="T65" s="11"/>
+      <c r="R65" s="4">
+        <f>[1]!s_stmnote_bank_22n(A65,$A$46,1,100000000)</f>
+        <v>40.28772</v>
+      </c>
+      <c r="S65" s="4">
+        <f>[1]!s_stmnote_bank_1n(A65,$A$46,1,100000000)</f>
+        <v>1096.74937</v>
+      </c>
+      <c r="T65" s="10">
+        <f t="shared" si="33"/>
+        <v>3.6733752580135969E-2</v>
+      </c>
       <c r="U65" s="11"/>
       <c r="V65" s="11"/>
       <c r="W65" s="11"/>
@@ -9893,8 +10128,18 @@
         <f>[1]!s_stm07_is(A66,"W30028333",A$46,1,100000000)*2</f>
         <v>50.62238</v>
       </c>
-      <c r="S66" s="11"/>
-      <c r="T66" s="11"/>
+      <c r="R66" s="4">
+        <f>[1]!s_stmnote_bank_22n(A66,$A$46,1,100000000)</f>
+        <v>81.368530000000007</v>
+      </c>
+      <c r="S66" s="4">
+        <f>[1]!s_stmnote_bank_1n(A66,$A$46,1,100000000)</f>
+        <v>2731.11501</v>
+      </c>
+      <c r="T66" s="10">
+        <f t="shared" si="33"/>
+        <v>2.9793153969008432E-2</v>
+      </c>
       <c r="U66" s="11"/>
       <c r="V66" s="11"/>
       <c r="W66" s="11"/>
@@ -9964,6 +10209,18 @@
         <f>[1]!s_stm07_is(A67,"W30028333",A$46,1,100000000)*2</f>
         <v>123.53572</v>
       </c>
+      <c r="R67" s="4">
+        <f>[1]!s_stmnote_bank_22n(A67,$A$46,1,100000000)</f>
+        <v>182.36618999999999</v>
+      </c>
+      <c r="S67" s="4">
+        <f>[1]!s_stmnote_bank_1n(A67,$A$46,1,100000000)</f>
+        <v>7010.6164500000004</v>
+      </c>
+      <c r="T67" s="10">
+        <f t="shared" si="33"/>
+        <v>2.6012860823387361E-2</v>
+      </c>
     </row>
     <row r="68" spans="1:23" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="str">
@@ -10030,6 +10287,18 @@
         <f>[1]!s_stm07_is(A68,"W30028333",A$46,1,100000000)*2</f>
         <v>10.436400000000001</v>
       </c>
+      <c r="R68" s="4">
+        <f>[1]!s_stmnote_bank_22n(A68,$A$46,1,100000000)</f>
+        <v>17.7926</v>
+      </c>
+      <c r="S68" s="4">
+        <f>[1]!s_stmnote_bank_1n(A68,$A$46,1,100000000)</f>
+        <v>636.69928000000004</v>
+      </c>
+      <c r="T68" s="10">
+        <f t="shared" si="33"/>
+        <v>2.794506065720696E-2</v>
+      </c>
     </row>
     <row r="69" spans="1:23" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="str">
@@ -10096,6 +10365,18 @@
         <f>[1]!s_stm07_is(A69,"W30028333",A$46,1,100000000)*2</f>
         <v>11.419079999999999</v>
       </c>
+      <c r="R69" s="4">
+        <f>[1]!s_stmnote_bank_22n(A69,$A$46,1,100000000)</f>
+        <v>24.698170000000001</v>
+      </c>
+      <c r="S69" s="4">
+        <f>[1]!s_stmnote_bank_1n(A69,$A$46,1,100000000)</f>
+        <v>717.46743000000004</v>
+      </c>
+      <c r="T69" s="10">
+        <f t="shared" si="33"/>
+        <v>3.4424099223570329E-2</v>
+      </c>
     </row>
     <row r="70" spans="1:23" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="str">
@@ -10162,6 +10443,18 @@
         <f>[1]!s_stm07_is(A70,"W30028333",A$46,1,100000000)*2</f>
         <v>7.0487399999999996</v>
       </c>
+      <c r="R70" s="4">
+        <f>[1]!s_stmnote_bank_22n(A70,$A$46,1,100000000)</f>
+        <v>23.377009999999999</v>
+      </c>
+      <c r="S70" s="4">
+        <f>[1]!s_stmnote_bank_1n(A70,$A$46,1,100000000)</f>
+        <v>541.16006000000004</v>
+      </c>
+      <c r="T70" s="10">
+        <f t="shared" si="33"/>
+        <v>4.3197958844191121E-2</v>
+      </c>
     </row>
     <row r="71" spans="1:23" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="str">
@@ -10228,6 +10521,18 @@
         <f>[1]!s_stm07_is(A71,"W30028333",A$46,1,100000000)*2</f>
         <v>8.7552599999999998</v>
       </c>
+      <c r="R71" s="4">
+        <f>[1]!s_stmnote_bank_22n(A71,$A$46,1,100000000)</f>
+        <v>14.943429999999999</v>
+      </c>
+      <c r="S71" s="4">
+        <f>[1]!s_stmnote_bank_1n(A71,$A$46,1,100000000)</f>
+        <v>475.66300000000001</v>
+      </c>
+      <c r="T71" s="10">
+        <f t="shared" si="33"/>
+        <v>3.1416002505975871E-2</v>
+      </c>
     </row>
     <row r="72" spans="1:23" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="str">
@@ -10294,26 +10599,38 @@
         <f>[1]!s_stm07_is(A72,"W30028333",A$46,1,100000000)*2</f>
         <v>7.0349092029999998</v>
       </c>
+      <c r="R72" s="4">
+        <f>[1]!s_stmnote_bank_22n(A72,$A$46,1,100000000)</f>
+        <v>17.365391946300001</v>
+      </c>
+      <c r="S72" s="4">
+        <f>[1]!s_stmnote_bank_1n(A72,$A$46,1,100000000)</f>
+        <v>474.97822374839996</v>
+      </c>
+      <c r="T72" s="10">
+        <f t="shared" si="33"/>
+        <v>3.6560395988803472E-2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="AB19:AI19"/>
+    <mergeCell ref="Z19:Z20"/>
+    <mergeCell ref="AA19:AA20"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="A36:A40"/>
     <mergeCell ref="U14:U15"/>
     <mergeCell ref="V14:V15"/>
     <mergeCell ref="E14:I14"/>
     <mergeCell ref="A10:M13"/>
     <mergeCell ref="K14:O14"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="A21:A28"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="AB19:AI19"/>
-    <mergeCell ref="Z19:Z20"/>
-    <mergeCell ref="AA19:AA20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="AB21:AI25">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/类信贷测算/【东吴银行马婷婷】上市银行信贷类非标投资资产计提测算final-V2.xlsx
+++ b/类信贷测算/【东吴银行马婷婷】上市银行信贷类非标投资资产计提测算final-V2.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="output2" sheetId="4" r:id="rId1"/>
-    <sheet name="output1" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
-    <sheet name="非标类信贷" sheetId="2" r:id="rId4"/>
-    <sheet name="数据底稿" sheetId="1" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId2"/>
+    <sheet name="output1" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
+    <sheet name="非标类信贷" sheetId="2" r:id="rId5"/>
+    <sheet name="数据底稿" sheetId="1" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="296">
   <si>
     <t>-</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2606,6 +2607,191 @@
   </si>
   <si>
     <t>拨贷比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016类信贷资产E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017H类信贷资产E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>股份行平均</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城商行平均</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016实际计提</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017实际计提</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农商行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行</t>
+  </si>
+  <si>
+    <t>工商银行</t>
+  </si>
+  <si>
+    <t>建设银行</t>
+  </si>
+  <si>
+    <t>农业银行</t>
+  </si>
+  <si>
+    <t>中国银行</t>
+  </si>
+  <si>
+    <t>交通银行</t>
+  </si>
+  <si>
+    <t>招商银行</t>
+  </si>
+  <si>
+    <t>中信银行</t>
+  </si>
+  <si>
+    <t>浦发银行</t>
+  </si>
+  <si>
+    <t>民生银行</t>
+  </si>
+  <si>
+    <t>兴业银行</t>
+  </si>
+  <si>
+    <t>光大银行</t>
+  </si>
+  <si>
+    <t>华夏银行</t>
+  </si>
+  <si>
+    <t>平安银行</t>
+  </si>
+  <si>
+    <t>北京银行</t>
+  </si>
+  <si>
+    <t>南京银行</t>
+  </si>
+  <si>
+    <t>宁波银行</t>
+  </si>
+  <si>
+    <t>上海银行</t>
+  </si>
+  <si>
+    <t>贵阳银行</t>
+  </si>
+  <si>
+    <t>杭州银行</t>
+  </si>
+  <si>
+    <t>江苏银行</t>
+  </si>
+  <si>
+    <t>无锡银行</t>
+  </si>
+  <si>
+    <t>常熟银行</t>
+  </si>
+  <si>
+    <t>江阴银行</t>
+  </si>
+  <si>
+    <t>吴江银行</t>
+  </si>
+  <si>
+    <t>张家港行</t>
+  </si>
+  <si>
+    <t>银行整体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>上市银行</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>折现率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不干</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡几率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位：万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国有行总计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国有行平均</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农商行平均</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016年实际计提比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017H实际计提比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际应收款项类减值准备变动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类信贷资产变动（测算）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2613,14 +2799,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="5">
+  <numFmts count="8">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="###,###,##0.0000"/>
     <numFmt numFmtId="178" formatCode="###,###,##0.00"/>
     <numFmt numFmtId="179" formatCode="0.0000"/>
     <numFmt numFmtId="180" formatCode="0.00_ "/>
+    <numFmt numFmtId="181" formatCode="0.0%"/>
+    <numFmt numFmtId="189" formatCode="0.0"/>
+    <numFmt numFmtId="191" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2716,8 +2905,64 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="楷体_GB2312"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="楷体_GB2312"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="楷体_GB2312"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="楷体_GB2312"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2745,6 +2990,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1F4E79"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2939,7 +3190,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="202">
+  <cellXfs count="232">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -3299,6 +3550,30 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3326,37 +3601,87 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="181" fontId="21" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="189" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="181" fontId="11" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="191" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="189" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="189" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="189" fontId="21" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="189" fontId="11" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="189" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="百分比" xfId="2" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3496,16 +3821,6 @@
         <name val="Times New Roman"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3546,28 +3861,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:B7" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:B7" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A3:B7">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" name="假设：类信贷非标资产占“资管、信托或其他非标资产”的比重" dataDxfId="5"/>
-    <tableColumn id="2" name=" " dataDxfId="4"/>
+    <tableColumn id="1" name="假设：类信贷非标资产占“资管、信托或其他非标资产”的比重" dataDxfId="7"/>
+    <tableColumn id="2" name=" " dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="D3:E8" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="D3:E8" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="D3:E8">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" name="分类" dataDxfId="1"/>
-    <tableColumn id="2" name="不良贷款拨备计提指导标准" dataDxfId="0"/>
+    <tableColumn id="1" name="分类" dataDxfId="3"/>
+    <tableColumn id="2" name="不良贷款拨备计提指导标准" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3841,8 +4156,8 @@
   </sheetPr>
   <dimension ref="B1:J39"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10:F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -4763,6 +5078,2575 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:AK68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E44" sqref="C38:G68"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="16.46484375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.265625" customWidth="1"/>
+    <col min="5" max="5" width="14.265625" customWidth="1"/>
+    <col min="6" max="6" width="11.53125" customWidth="1"/>
+    <col min="7" max="7" width="11.265625" customWidth="1"/>
+    <col min="14" max="14" width="23.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="G1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C3" s="149" t="s">
+        <v>245</v>
+      </c>
+      <c r="D3" t="s">
+        <v>246</v>
+      </c>
+      <c r="G3" s="149" t="s">
+        <v>251</v>
+      </c>
+      <c r="H3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="B4" s="151" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="202">
+        <v>224.24200000000002</v>
+      </c>
+      <c r="D4" s="82">
+        <v>329.14600000000002</v>
+      </c>
+      <c r="E4" s="225">
+        <f>D4-C4</f>
+        <v>104.904</v>
+      </c>
+      <c r="F4" s="205">
+        <f>IF(E4&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G4" s="202">
+        <v>0</v>
+      </c>
+      <c r="H4" s="82">
+        <v>0</v>
+      </c>
+      <c r="I4" s="230">
+        <f>H4-G4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="205">
+        <f t="shared" ref="J4:J8" si="0">IF(I4&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="207">
+        <v>0</v>
+      </c>
+      <c r="L4" s="114">
+        <v>0</v>
+      </c>
+      <c r="M4" s="210">
+        <f>L4-K4</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="210">
+        <f>IF(M4*E4&lt;=0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="B5" s="151" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="203">
+        <v>294.83800000000002</v>
+      </c>
+      <c r="D5" s="13">
+        <v>111.306</v>
+      </c>
+      <c r="E5" s="225">
+        <f t="shared" ref="E5:E33" si="1">D5-C5</f>
+        <v>-183.53200000000004</v>
+      </c>
+      <c r="F5" s="205">
+        <f t="shared" ref="F5:F31" si="2">IF(E5&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="203">
+        <v>13.51</v>
+      </c>
+      <c r="H5" s="13">
+        <v>17.059999999999999</v>
+      </c>
+      <c r="I5" s="230">
+        <f t="shared" ref="I5:I33" si="3">H5-G5</f>
+        <v>3.5499999999999989</v>
+      </c>
+      <c r="J5" s="205">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K5" s="208">
+        <v>4.582177331280228E-2</v>
+      </c>
+      <c r="L5" s="115">
+        <v>0.15327116238118341</v>
+      </c>
+      <c r="M5" s="210">
+        <f t="shared" ref="M5:M33" si="4">L5-K5</f>
+        <v>0.10744938906838113</v>
+      </c>
+      <c r="N5" s="210">
+        <f t="shared" ref="N5:N31" si="5">IF(M5*E5&lt;=0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="B6" s="151" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="203">
+        <v>110.31400000000014</v>
+      </c>
+      <c r="D6" s="13">
+        <v>110.08399999999983</v>
+      </c>
+      <c r="E6" s="225">
+        <f t="shared" si="1"/>
+        <v>-0.23000000000030241</v>
+      </c>
+      <c r="F6" s="205">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="203">
+        <v>46.54</v>
+      </c>
+      <c r="H6" s="13">
+        <v>48.9</v>
+      </c>
+      <c r="I6" s="230">
+        <f t="shared" si="3"/>
+        <v>2.3599999999999994</v>
+      </c>
+      <c r="J6" s="205">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K6" s="208">
+        <v>0.4218866145729458</v>
+      </c>
+      <c r="L6" s="115">
+        <v>0.44420624250572355</v>
+      </c>
+      <c r="M6" s="210">
+        <f t="shared" si="4"/>
+        <v>2.2319627932777752E-2</v>
+      </c>
+      <c r="N6" s="210">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="B7" s="151" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="203">
+        <v>45.876000000000005</v>
+      </c>
+      <c r="D7" s="13">
+        <v>19.954000000000001</v>
+      </c>
+      <c r="E7" s="225">
+        <f t="shared" si="1"/>
+        <v>-25.922000000000004</v>
+      </c>
+      <c r="F7" s="205">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="203">
+        <v>24.73</v>
+      </c>
+      <c r="H7" s="13">
+        <v>24.59</v>
+      </c>
+      <c r="I7" s="230">
+        <f t="shared" si="3"/>
+        <v>-0.14000000000000057</v>
+      </c>
+      <c r="J7" s="205">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="208">
+        <v>0.53906181881593862</v>
+      </c>
+      <c r="L7" s="115">
+        <v>1.2323343690488122</v>
+      </c>
+      <c r="M7" s="210">
+        <f t="shared" si="4"/>
+        <v>0.6932725502328736</v>
+      </c>
+      <c r="N7" s="210">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="152" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="204">
+        <v>484.99200000000002</v>
+      </c>
+      <c r="D8" s="75">
+        <v>557.43200000000002</v>
+      </c>
+      <c r="E8" s="225">
+        <f t="shared" si="1"/>
+        <v>72.44</v>
+      </c>
+      <c r="F8" s="205">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G8" s="203">
+        <v>28.03</v>
+      </c>
+      <c r="H8" s="13">
+        <v>26.55</v>
+      </c>
+      <c r="I8" s="230">
+        <f t="shared" si="3"/>
+        <v>-1.4800000000000004</v>
+      </c>
+      <c r="J8" s="205">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="208">
+        <v>5.7794767748746374E-2</v>
+      </c>
+      <c r="L8" s="115">
+        <v>4.7629127857747672E-2</v>
+      </c>
+      <c r="M8" s="210">
+        <f t="shared" si="4"/>
+        <v>-1.0165639890998703E-2</v>
+      </c>
+      <c r="N8" s="210">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="212" t="s">
+        <v>289</v>
+      </c>
+      <c r="C9" s="203">
+        <f>SUM(C4:C8)</f>
+        <v>1160.2620000000002</v>
+      </c>
+      <c r="D9" s="203">
+        <f>SUM(D4:D8)</f>
+        <v>1127.9219999999998</v>
+      </c>
+      <c r="E9" s="225">
+        <f t="shared" si="1"/>
+        <v>-32.340000000000373</v>
+      </c>
+      <c r="F9" s="205"/>
+      <c r="G9" s="203">
+        <f>SUM(G4:G8)</f>
+        <v>112.81</v>
+      </c>
+      <c r="H9" s="203">
+        <f>SUM(H4:H8)</f>
+        <v>117.1</v>
+      </c>
+      <c r="I9" s="230">
+        <f t="shared" si="3"/>
+        <v>4.289999999999992</v>
+      </c>
+      <c r="J9" s="230"/>
+      <c r="K9" s="208">
+        <f>G9/C9</f>
+        <v>9.7228039873752642E-2</v>
+      </c>
+      <c r="L9" s="208">
+        <f>H9/D9</f>
+        <v>0.10381923572729321</v>
+      </c>
+      <c r="M9" s="210">
+        <f t="shared" si="4"/>
+        <v>6.5911958535405657E-3</v>
+      </c>
+      <c r="N9" s="210">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="B10" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="202">
+        <v>2059.0700000000002</v>
+      </c>
+      <c r="D10" s="82">
+        <v>2838.41</v>
+      </c>
+      <c r="E10" s="225">
+        <f t="shared" si="1"/>
+        <v>779.33999999999969</v>
+      </c>
+      <c r="F10" s="205">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G10" s="202">
+        <v>61.76</v>
+      </c>
+      <c r="H10" s="82">
+        <v>43.06</v>
+      </c>
+      <c r="I10" s="230">
+        <f t="shared" si="3"/>
+        <v>-18.699999999999996</v>
+      </c>
+      <c r="J10" s="205">
+        <f t="shared" ref="J10:J31" si="6">IF(I10&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="207">
+        <v>2.9994123560636594E-2</v>
+      </c>
+      <c r="L10" s="114">
+        <v>1.5170465154787365E-2</v>
+      </c>
+      <c r="M10" s="210">
+        <f t="shared" si="4"/>
+        <v>-1.4823658405849229E-2</v>
+      </c>
+      <c r="N10" s="210">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="B11" s="151" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="203">
+        <v>3103.61</v>
+      </c>
+      <c r="D11" s="13">
+        <v>3028.13</v>
+      </c>
+      <c r="E11" s="225">
+        <f t="shared" si="1"/>
+        <v>-75.480000000000018</v>
+      </c>
+      <c r="F11" s="205">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="203">
+        <v>17.559999999999999</v>
+      </c>
+      <c r="H11" s="13">
+        <v>25.36</v>
+      </c>
+      <c r="I11" s="230">
+        <f t="shared" si="3"/>
+        <v>7.8000000000000007</v>
+      </c>
+      <c r="J11" s="205">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K11" s="208">
+        <v>5.657927381339794E-3</v>
+      </c>
+      <c r="L11" s="115">
+        <v>8.3748055730764534E-3</v>
+      </c>
+      <c r="M11" s="210">
+        <f t="shared" si="4"/>
+        <v>2.7168781917366594E-3</v>
+      </c>
+      <c r="N11" s="210">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="B12" s="151" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="203">
+        <v>5585.2420000000002</v>
+      </c>
+      <c r="D12" s="13">
+        <v>4302.8050000000003</v>
+      </c>
+      <c r="E12" s="225">
+        <f t="shared" si="1"/>
+        <v>-1282.4369999999999</v>
+      </c>
+      <c r="F12" s="205">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="203">
+        <v>58.09</v>
+      </c>
+      <c r="H12" s="13">
+        <v>65.2</v>
+      </c>
+      <c r="I12" s="230">
+        <f t="shared" si="3"/>
+        <v>7.1099999999999994</v>
+      </c>
+      <c r="J12" s="205">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K12" s="208">
+        <v>1.0400623643523415E-2</v>
+      </c>
+      <c r="L12" s="115">
+        <v>1.515290606941286E-2</v>
+      </c>
+      <c r="M12" s="210">
+        <f t="shared" si="4"/>
+        <v>4.7522824258894453E-3</v>
+      </c>
+      <c r="N12" s="210">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="B13" s="151" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="203">
+        <v>6833.723</v>
+      </c>
+      <c r="D13" s="13">
+        <v>5937.3275000000003</v>
+      </c>
+      <c r="E13" s="225">
+        <f t="shared" si="1"/>
+        <v>-896.39549999999963</v>
+      </c>
+      <c r="F13" s="205">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="203">
+        <v>16.88</v>
+      </c>
+      <c r="H13" s="13">
+        <v>20.32</v>
+      </c>
+      <c r="I13" s="230">
+        <f t="shared" si="3"/>
+        <v>3.4400000000000013</v>
+      </c>
+      <c r="J13" s="205">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K13" s="208">
+        <v>2.4701030463189682E-3</v>
+      </c>
+      <c r="L13" s="115">
+        <v>3.4224152196421706E-3</v>
+      </c>
+      <c r="M13" s="210">
+        <f t="shared" si="4"/>
+        <v>9.5231217332320244E-4</v>
+      </c>
+      <c r="N13" s="210">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="B14" s="151" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="203">
+        <v>8816.89</v>
+      </c>
+      <c r="D14" s="13">
+        <v>9212.0499999999993</v>
+      </c>
+      <c r="E14" s="225">
+        <f t="shared" si="1"/>
+        <v>395.15999999999985</v>
+      </c>
+      <c r="F14" s="205">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G14" s="203">
+        <v>134.03</v>
+      </c>
+      <c r="H14" s="13">
+        <v>159.46</v>
+      </c>
+      <c r="I14" s="230">
+        <f t="shared" si="3"/>
+        <v>25.430000000000007</v>
+      </c>
+      <c r="J14" s="205">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K14" s="208">
+        <v>1.5201505292682568E-2</v>
+      </c>
+      <c r="L14" s="115">
+        <v>1.7309936441942893E-2</v>
+      </c>
+      <c r="M14" s="210">
+        <f t="shared" si="4"/>
+        <v>2.1084311492603255E-3</v>
+      </c>
+      <c r="N14" s="210">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="B15" s="151" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="203">
+        <v>3113.1684999999998</v>
+      </c>
+      <c r="D15" s="13">
+        <v>3200.3270000000002</v>
+      </c>
+      <c r="E15" s="225">
+        <f t="shared" si="1"/>
+        <v>87.158500000000458</v>
+      </c>
+      <c r="F15" s="205">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G15" s="203">
+        <v>17.309999999999999</v>
+      </c>
+      <c r="H15" s="13">
+        <v>20.92</v>
+      </c>
+      <c r="I15" s="230">
+        <f t="shared" si="3"/>
+        <v>3.610000000000003</v>
+      </c>
+      <c r="J15" s="205">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K15" s="208">
+        <v>5.5602515572157436E-3</v>
+      </c>
+      <c r="L15" s="115">
+        <v>6.5368320174782144E-3</v>
+      </c>
+      <c r="M15" s="210">
+        <f t="shared" si="4"/>
+        <v>9.7658046026247083E-4</v>
+      </c>
+      <c r="N15" s="210">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="B16" s="151" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="203">
+        <v>783.54250000000025</v>
+      </c>
+      <c r="D16" s="13">
+        <v>1131.8579999999999</v>
+      </c>
+      <c r="E16" s="225">
+        <f t="shared" si="1"/>
+        <v>348.3154999999997</v>
+      </c>
+      <c r="F16" s="205">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G16" s="203">
+        <v>10.29</v>
+      </c>
+      <c r="H16" s="13">
+        <v>14.73</v>
+      </c>
+      <c r="I16" s="230">
+        <f t="shared" si="3"/>
+        <v>4.4400000000000013</v>
+      </c>
+      <c r="J16" s="205">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K16" s="208">
+        <v>1.3132663512189825E-2</v>
+      </c>
+      <c r="L16" s="115">
+        <v>1.3013999989397965E-2</v>
+      </c>
+      <c r="M16" s="210">
+        <f t="shared" si="4"/>
+        <v>-1.186635227918599E-4</v>
+      </c>
+      <c r="N16" s="210">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="152" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="204">
+        <v>2273.1020000000003</v>
+      </c>
+      <c r="D17" s="75">
+        <v>2378.922</v>
+      </c>
+      <c r="E17" s="225">
+        <f t="shared" si="1"/>
+        <v>105.81999999999971</v>
+      </c>
+      <c r="F17" s="205">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G17" s="203">
+        <v>16.55</v>
+      </c>
+      <c r="H17" s="13">
+        <v>23.55</v>
+      </c>
+      <c r="I17" s="230">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="J17" s="205">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K17" s="208">
+        <v>7.2807995417715522E-3</v>
+      </c>
+      <c r="L17" s="115">
+        <v>9.8994418480303267E-3</v>
+      </c>
+      <c r="M17" s="210">
+        <f t="shared" si="4"/>
+        <v>2.6186423062587744E-3</v>
+      </c>
+      <c r="N17" s="210">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="212" t="s">
+        <v>247</v>
+      </c>
+      <c r="C18" s="203">
+        <f>SUM(C10:C17)</f>
+        <v>32568.347999999998</v>
+      </c>
+      <c r="D18" s="203">
+        <f>SUM(D10:D17)</f>
+        <v>32029.8295</v>
+      </c>
+      <c r="E18" s="225">
+        <f t="shared" si="1"/>
+        <v>-538.51849999999831</v>
+      </c>
+      <c r="F18" s="205"/>
+      <c r="G18" s="203">
+        <f>SUM(G10:G17)</f>
+        <v>332.47</v>
+      </c>
+      <c r="H18" s="203">
+        <f>SUM(H10:H17)</f>
+        <v>372.6</v>
+      </c>
+      <c r="I18" s="230">
+        <f t="shared" si="3"/>
+        <v>40.129999999999995</v>
+      </c>
+      <c r="J18" s="205"/>
+      <c r="K18" s="208">
+        <f>G18/C18</f>
+        <v>1.020837777832637E-2</v>
+      </c>
+      <c r="L18" s="208">
+        <f>H18/D18</f>
+        <v>1.1632906132079162E-2</v>
+      </c>
+      <c r="M18" s="210">
+        <f t="shared" si="4"/>
+        <v>1.4245283537527922E-3</v>
+      </c>
+      <c r="N18" s="210">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="B19" s="76" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="202">
+        <v>938.88400000000024</v>
+      </c>
+      <c r="D19" s="82">
+        <v>1328.2079999999999</v>
+      </c>
+      <c r="E19" s="225">
+        <f t="shared" si="1"/>
+        <v>389.32399999999961</v>
+      </c>
+      <c r="F19" s="205">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G19" s="202">
+        <v>64.5</v>
+      </c>
+      <c r="H19" s="82">
+        <v>97.36</v>
+      </c>
+      <c r="I19" s="230">
+        <f t="shared" si="3"/>
+        <v>32.86</v>
+      </c>
+      <c r="J19" s="205">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K19" s="207">
+        <v>6.8698582572500957E-2</v>
+      </c>
+      <c r="L19" s="114">
+        <v>7.3301772011612643E-2</v>
+      </c>
+      <c r="M19" s="210">
+        <f t="shared" si="4"/>
+        <v>4.6031894391116851E-3</v>
+      </c>
+      <c r="N19" s="210">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="B20" s="151" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="203">
+        <v>871.98742800000002</v>
+      </c>
+      <c r="D20" s="13">
+        <v>951.84588000000008</v>
+      </c>
+      <c r="E20" s="225">
+        <f t="shared" si="1"/>
+        <v>79.858452000000057</v>
+      </c>
+      <c r="F20" s="205">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G20" s="203">
+        <v>20.056889999999999</v>
+      </c>
+      <c r="H20" s="13">
+        <v>24.131910000000001</v>
+      </c>
+      <c r="I20" s="230">
+        <f t="shared" si="3"/>
+        <v>4.0750200000000021</v>
+      </c>
+      <c r="J20" s="205">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K20" s="208">
+        <v>2.3001352262615418E-2</v>
+      </c>
+      <c r="L20" s="115">
+        <v>2.535274933374718E-2</v>
+      </c>
+      <c r="M20" s="210">
+        <f t="shared" si="4"/>
+        <v>2.3513970711317618E-3</v>
+      </c>
+      <c r="N20" s="210">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="B21" s="151" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="203">
+        <v>399.51795200000004</v>
+      </c>
+      <c r="D21" s="13">
+        <v>409.66578800000002</v>
+      </c>
+      <c r="E21" s="225">
+        <f t="shared" si="1"/>
+        <v>10.147835999999984</v>
+      </c>
+      <c r="F21" s="205">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G21" s="203">
+        <v>4.3524500000000002</v>
+      </c>
+      <c r="H21" s="13">
+        <v>2.4</v>
+      </c>
+      <c r="I21" s="230">
+        <f t="shared" si="3"/>
+        <v>-1.9524500000000002</v>
+      </c>
+      <c r="J21" s="205">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="208">
+        <v>1.0894253883239769E-2</v>
+      </c>
+      <c r="L21" s="115">
+        <v>5.8584340462425914E-3</v>
+      </c>
+      <c r="M21" s="210">
+        <f t="shared" si="4"/>
+        <v>-5.0358198369971777E-3</v>
+      </c>
+      <c r="N21" s="210">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="B22" s="151" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="203">
+        <v>949.73578799999996</v>
+      </c>
+      <c r="D22" s="13">
+        <v>579.47775999999999</v>
+      </c>
+      <c r="E22" s="225">
+        <f t="shared" si="1"/>
+        <v>-370.25802799999997</v>
+      </c>
+      <c r="F22" s="205">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="203">
+        <v>53.484279999999998</v>
+      </c>
+      <c r="H22" s="13">
+        <v>67.708160000000007</v>
+      </c>
+      <c r="I22" s="230">
+        <f t="shared" si="3"/>
+        <v>14.223880000000008</v>
+      </c>
+      <c r="J22" s="205">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K22" s="208">
+        <v>5.6314904287886013E-2</v>
+      </c>
+      <c r="L22" s="115">
+        <v>0.11684341431843737</v>
+      </c>
+      <c r="M22" s="210">
+        <f t="shared" si="4"/>
+        <v>6.0528510030551354E-2</v>
+      </c>
+      <c r="N22" s="210">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="B23" s="151" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="203">
+        <v>223.889396</v>
+      </c>
+      <c r="D23" s="13">
+        <v>305.39820800000001</v>
+      </c>
+      <c r="E23" s="225">
+        <f t="shared" si="1"/>
+        <v>81.508812000000006</v>
+      </c>
+      <c r="F23" s="205">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G23" s="203">
+        <v>7.6988599999999998</v>
+      </c>
+      <c r="H23" s="13">
+        <v>14.410450000000001</v>
+      </c>
+      <c r="I23" s="230">
+        <f t="shared" si="3"/>
+        <v>6.7115900000000011</v>
+      </c>
+      <c r="J23" s="205">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K23" s="208">
+        <v>3.4386889855203322E-2</v>
+      </c>
+      <c r="L23" s="115">
+        <v>4.7185771306163006E-2</v>
+      </c>
+      <c r="M23" s="210">
+        <f t="shared" si="4"/>
+        <v>1.2798881450959684E-2</v>
+      </c>
+      <c r="N23" s="210">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="B24" s="151" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="203">
+        <v>210.224244</v>
+      </c>
+      <c r="D24" s="13">
+        <v>284.75364000000002</v>
+      </c>
+      <c r="E24" s="225">
+        <f t="shared" si="1"/>
+        <v>74.52939600000002</v>
+      </c>
+      <c r="F24" s="205">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G24" s="203">
+        <v>2.1</v>
+      </c>
+      <c r="H24" s="13">
+        <v>2.35</v>
+      </c>
+      <c r="I24" s="230">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="J24" s="205">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K24" s="208">
+        <v>9.9893331047012836E-3</v>
+      </c>
+      <c r="L24" s="115">
+        <v>8.2527478841007973E-3</v>
+      </c>
+      <c r="M24" s="210">
+        <f t="shared" si="4"/>
+        <v>-1.7365852206004864E-3</v>
+      </c>
+      <c r="N24" s="210">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="152" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="204">
+        <v>0</v>
+      </c>
+      <c r="D25" s="75">
+        <v>0</v>
+      </c>
+      <c r="E25" s="225">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="205">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="204">
+        <v>14.09693</v>
+      </c>
+      <c r="H25" s="75">
+        <v>24.378209999999999</v>
+      </c>
+      <c r="I25" s="230">
+        <f t="shared" si="3"/>
+        <v>10.281279999999999</v>
+      </c>
+      <c r="J25" s="205">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K25" s="209" t="s">
+        <v>249</v>
+      </c>
+      <c r="L25" s="116" t="s">
+        <v>249</v>
+      </c>
+      <c r="M25" s="210" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N25" s="210" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="212" t="s">
+        <v>248</v>
+      </c>
+      <c r="C26" s="203">
+        <f>SUM(C19:C25)</f>
+        <v>3594.2388080000005</v>
+      </c>
+      <c r="D26" s="203">
+        <f>SUM(D19:D25)</f>
+        <v>3859.3492759999995</v>
+      </c>
+      <c r="E26" s="225">
+        <f t="shared" si="1"/>
+        <v>265.11046799999895</v>
+      </c>
+      <c r="F26" s="205"/>
+      <c r="G26" s="203">
+        <f>SUM(G19:G25)</f>
+        <v>166.28940999999998</v>
+      </c>
+      <c r="H26" s="203">
+        <f>SUM(H19:H25)</f>
+        <v>232.73873</v>
+      </c>
+      <c r="I26" s="230">
+        <f t="shared" si="3"/>
+        <v>66.449320000000029</v>
+      </c>
+      <c r="J26" s="230"/>
+      <c r="K26" s="208">
+        <f>G26/C26</f>
+        <v>4.6265542965557994E-2</v>
+      </c>
+      <c r="L26" s="208">
+        <f>H26/D26</f>
+        <v>6.0305174099510563E-2</v>
+      </c>
+      <c r="M26" s="210">
+        <f t="shared" si="4"/>
+        <v>1.4039631133952568E-2</v>
+      </c>
+      <c r="N26" s="210">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="B27" s="76" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="202">
+        <v>37.621120000000005</v>
+      </c>
+      <c r="D27" s="82">
+        <v>31.593599999999999</v>
+      </c>
+      <c r="E27" s="225">
+        <f t="shared" si="1"/>
+        <v>-6.0275200000000062</v>
+      </c>
+      <c r="F27" s="205">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="202">
+        <v>0.54876000000000003</v>
+      </c>
+      <c r="H27" s="82">
+        <v>1.20529</v>
+      </c>
+      <c r="I27" s="230">
+        <f t="shared" si="3"/>
+        <v>0.65652999999999995</v>
+      </c>
+      <c r="J27" s="205">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K27" s="207">
+        <v>1.4586487589949473E-2</v>
+      </c>
+      <c r="L27" s="114">
+        <v>3.8149815152435936E-2</v>
+      </c>
+      <c r="M27" s="210">
+        <f t="shared" si="4"/>
+        <v>2.3563327562486462E-2</v>
+      </c>
+      <c r="N27" s="210">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="B28" s="151" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="203">
+        <v>51.640524000000006</v>
+      </c>
+      <c r="D28" s="13">
+        <v>57.102924000000002</v>
+      </c>
+      <c r="E28" s="225">
+        <f t="shared" si="1"/>
+        <v>5.4623999999999953</v>
+      </c>
+      <c r="F28" s="205">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G28" s="203">
+        <v>2.1757300000000002</v>
+      </c>
+      <c r="H28" s="13">
+        <v>2.4623499999999998</v>
+      </c>
+      <c r="I28" s="230">
+        <f t="shared" si="3"/>
+        <v>0.28661999999999965</v>
+      </c>
+      <c r="J28" s="205">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K28" s="208">
+        <v>4.2132221586287544E-2</v>
+      </c>
+      <c r="L28" s="115">
+        <v>4.312125942972727E-2</v>
+      </c>
+      <c r="M28" s="210">
+        <f t="shared" si="4"/>
+        <v>9.8903784343972595E-4</v>
+      </c>
+      <c r="N28" s="210">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="B29" s="151" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="203">
+        <v>3.6</v>
+      </c>
+      <c r="D29" s="13">
+        <v>0</v>
+      </c>
+      <c r="E29" s="225">
+        <f t="shared" si="1"/>
+        <v>-3.6</v>
+      </c>
+      <c r="F29" s="205">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="203">
+        <v>0</v>
+      </c>
+      <c r="H29" s="13">
+        <v>0</v>
+      </c>
+      <c r="I29" s="230">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="205">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="208" t="s">
+        <v>249</v>
+      </c>
+      <c r="L29" s="115" t="s">
+        <v>249</v>
+      </c>
+      <c r="M29" s="210" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N29" s="210" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="B30" s="151" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="203">
+        <v>0</v>
+      </c>
+      <c r="D30" s="13">
+        <v>0</v>
+      </c>
+      <c r="E30" s="225">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="205">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="203">
+        <v>0</v>
+      </c>
+      <c r="H30" s="13">
+        <v>0</v>
+      </c>
+      <c r="I30" s="230">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="205">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="208" t="s">
+        <v>249</v>
+      </c>
+      <c r="L30" s="115" t="s">
+        <v>249</v>
+      </c>
+      <c r="M30" s="210" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N30" s="210" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="152" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="204">
+        <v>1.2208692593599999</v>
+      </c>
+      <c r="D31" s="75">
+        <v>5.7074446834800012</v>
+      </c>
+      <c r="E31" s="225">
+        <f t="shared" si="1"/>
+        <v>4.4865754241200015</v>
+      </c>
+      <c r="F31" s="205">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G31" s="204">
+        <v>0.41925000000000001</v>
+      </c>
+      <c r="H31" s="75">
+        <v>0.94874999999999998</v>
+      </c>
+      <c r="I31" s="230">
+        <f t="shared" si="3"/>
+        <v>0.52949999999999997</v>
+      </c>
+      <c r="J31" s="205">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K31" s="209">
+        <v>0.34340286380851121</v>
+      </c>
+      <c r="L31" s="116">
+        <v>0.16623025760479529</v>
+      </c>
+      <c r="M31" s="210">
+        <f t="shared" si="4"/>
+        <v>-0.17717260620371592</v>
+      </c>
+      <c r="N31" s="210">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="B32" s="213" t="s">
+        <v>253</v>
+      </c>
+      <c r="C32" s="153">
+        <f>SUM(C27:C31)</f>
+        <v>94.082513259360013</v>
+      </c>
+      <c r="D32" s="153">
+        <f>SUM(D27:D31)</f>
+        <v>94.403968683480002</v>
+      </c>
+      <c r="E32" s="225">
+        <f t="shared" si="1"/>
+        <v>0.32145542411998917</v>
+      </c>
+      <c r="F32" s="205"/>
+      <c r="G32" s="211">
+        <f>SUM(G27:G31)</f>
+        <v>3.1437400000000002</v>
+      </c>
+      <c r="H32" s="211">
+        <f>SUM(H27:H31)</f>
+        <v>4.6163899999999991</v>
+      </c>
+      <c r="I32" s="230">
+        <f t="shared" si="3"/>
+        <v>1.4726499999999989</v>
+      </c>
+      <c r="J32" s="230"/>
+      <c r="K32" s="208">
+        <f>G32/C32</f>
+        <v>3.3414711098688023E-2</v>
+      </c>
+      <c r="L32" s="208">
+        <f>H32/D32</f>
+        <v>4.8900380613000997E-2</v>
+      </c>
+      <c r="M32" s="210">
+        <f t="shared" si="4"/>
+        <v>1.5485669514312975E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="B33" s="206" t="s">
+        <v>281</v>
+      </c>
+      <c r="C33" s="153">
+        <f>SUM(C4:C8,C10:C17,C19:C25,C27:C31)</f>
+        <v>37416.931321259362</v>
+      </c>
+      <c r="D33" s="153">
+        <f>SUM(D4:D8,D10:D17,D19:D25,D27:D31)</f>
+        <v>37111.50474468348</v>
+      </c>
+      <c r="E33" s="225">
+        <f t="shared" si="1"/>
+        <v>-305.42657657588279</v>
+      </c>
+      <c r="F33" s="231">
+        <f>SUM(F4:F31)</f>
+        <v>14</v>
+      </c>
+      <c r="G33" s="153">
+        <f>SUM(G4:G8,G10:G17,G19:G25,G27:G31)</f>
+        <v>614.71315000000016</v>
+      </c>
+      <c r="H33" s="153">
+        <f>SUM(H4:H8,H10:H17,H19:H25,H27:H31)</f>
+        <v>727.05511999999999</v>
+      </c>
+      <c r="I33" s="230">
+        <f t="shared" si="3"/>
+        <v>112.34196999999983</v>
+      </c>
+      <c r="J33" s="230">
+        <f>SUM(J4:J31)</f>
+        <v>18</v>
+      </c>
+      <c r="K33" s="208">
+        <f>G33/C33</f>
+        <v>1.6428743039404076E-2</v>
+      </c>
+      <c r="L33" s="208">
+        <f>H33/D33</f>
+        <v>1.9591097828070593E-2</v>
+      </c>
+      <c r="M33" s="210">
+        <f t="shared" si="4"/>
+        <v>3.1623547886665167E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="G34" s="205"/>
+      <c r="H34" s="205"/>
+    </row>
+    <row r="35" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="G35" s="205"/>
+      <c r="H35" s="205"/>
+    </row>
+    <row r="38" spans="2:37" ht="39.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C38" s="214" t="s">
+        <v>254</v>
+      </c>
+      <c r="D38" s="215" t="s">
+        <v>295</v>
+      </c>
+      <c r="E38" s="215" t="s">
+        <v>294</v>
+      </c>
+      <c r="F38" s="215" t="s">
+        <v>293</v>
+      </c>
+      <c r="G38" s="215" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="39" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="B39" s="142"/>
+      <c r="C39" s="222" t="s">
+        <v>255</v>
+      </c>
+      <c r="D39" s="226">
+        <v>104.904</v>
+      </c>
+      <c r="E39" s="226">
+        <v>0</v>
+      </c>
+      <c r="F39" s="217">
+        <v>0</v>
+      </c>
+      <c r="G39" s="217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="B40" s="142"/>
+      <c r="C40" s="216" t="s">
+        <v>256</v>
+      </c>
+      <c r="D40" s="226">
+        <v>-183.53200000000004</v>
+      </c>
+      <c r="E40" s="226">
+        <v>3.5499999999999989</v>
+      </c>
+      <c r="F40" s="217">
+        <v>0.15327116238118341</v>
+      </c>
+      <c r="G40" s="217">
+        <v>4.582177331280228E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="B41" s="142"/>
+      <c r="C41" s="216" t="s">
+        <v>257</v>
+      </c>
+      <c r="D41" s="226">
+        <v>-0.23000000000030241</v>
+      </c>
+      <c r="E41" s="226">
+        <v>2.3599999999999994</v>
+      </c>
+      <c r="F41" s="217">
+        <v>0.44420624250572355</v>
+      </c>
+      <c r="G41" s="217">
+        <v>0.4218866145729458</v>
+      </c>
+    </row>
+    <row r="42" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="B42" s="142"/>
+      <c r="C42" s="216" t="s">
+        <v>258</v>
+      </c>
+      <c r="D42" s="226">
+        <v>-25.922000000000004</v>
+      </c>
+      <c r="E42" s="226">
+        <v>-0.14000000000000057</v>
+      </c>
+      <c r="F42" s="217">
+        <v>1.2323343690488122</v>
+      </c>
+      <c r="G42" s="217">
+        <v>0.53906181881593862</v>
+      </c>
+    </row>
+    <row r="43" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="B43" s="142"/>
+      <c r="C43" s="216" t="s">
+        <v>259</v>
+      </c>
+      <c r="D43" s="227">
+        <v>72.44</v>
+      </c>
+      <c r="E43" s="227">
+        <v>-1.4800000000000004</v>
+      </c>
+      <c r="F43" s="218">
+        <v>4.7629127857747672E-2</v>
+      </c>
+      <c r="G43" s="218">
+        <v>5.7794767748746374E-2</v>
+      </c>
+      <c r="R43" t="s">
+        <v>287</v>
+      </c>
+      <c r="S43">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="44" spans="2:37" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="142"/>
+      <c r="C44" s="219" t="s">
+        <v>290</v>
+      </c>
+      <c r="D44" s="228">
+        <v>-32.340000000000373</v>
+      </c>
+      <c r="E44" s="228">
+        <v>4.289999999999992</v>
+      </c>
+      <c r="F44" s="220">
+        <v>0.10381923572729321</v>
+      </c>
+      <c r="G44" s="220">
+        <v>9.7228039873752642E-2</v>
+      </c>
+      <c r="L44" s="142"/>
+      <c r="R44" t="s">
+        <v>286</v>
+      </c>
+      <c r="S44" s="153">
+        <f>1/6</f>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="45" spans="2:37" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B45" s="142"/>
+      <c r="C45" s="222" t="s">
+        <v>260</v>
+      </c>
+      <c r="D45" s="226">
+        <v>779.33999999999969</v>
+      </c>
+      <c r="E45" s="226">
+        <v>-18.699999999999996</v>
+      </c>
+      <c r="F45" s="217">
+        <v>1.5170465154787365E-2</v>
+      </c>
+      <c r="G45" s="217">
+        <v>2.9994123560636594E-2</v>
+      </c>
+      <c r="R45" t="s">
+        <v>282</v>
+      </c>
+      <c r="S45">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="B46" s="142"/>
+      <c r="C46" s="216" t="s">
+        <v>261</v>
+      </c>
+      <c r="D46" s="226">
+        <v>-75.480000000000018</v>
+      </c>
+      <c r="E46" s="226">
+        <v>7.8000000000000007</v>
+      </c>
+      <c r="F46" s="217">
+        <v>8.3748055730764534E-3</v>
+      </c>
+      <c r="G46" s="217">
+        <v>5.657927381339794E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="B47" s="142"/>
+      <c r="C47" s="216" t="s">
+        <v>262</v>
+      </c>
+      <c r="D47" s="226">
+        <v>-1282.4369999999999</v>
+      </c>
+      <c r="E47" s="226">
+        <v>7.1099999999999994</v>
+      </c>
+      <c r="F47" s="217">
+        <v>1.515290606941286E-2</v>
+      </c>
+      <c r="G47" s="217">
+        <v>1.0400623643523415E-2</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>288</v>
+      </c>
+      <c r="R47">
+        <v>1</v>
+      </c>
+      <c r="S47">
+        <v>2</v>
+      </c>
+      <c r="T47">
+        <v>3</v>
+      </c>
+      <c r="U47">
+        <v>4</v>
+      </c>
+      <c r="V47">
+        <v>5</v>
+      </c>
+      <c r="W47">
+        <v>6</v>
+      </c>
+      <c r="X47">
+        <v>7</v>
+      </c>
+      <c r="Y47">
+        <v>8</v>
+      </c>
+      <c r="Z47">
+        <v>9</v>
+      </c>
+      <c r="AA47">
+        <v>10</v>
+      </c>
+      <c r="AB47">
+        <v>11</v>
+      </c>
+      <c r="AC47">
+        <v>12</v>
+      </c>
+      <c r="AD47">
+        <v>13</v>
+      </c>
+      <c r="AE47">
+        <v>14</v>
+      </c>
+      <c r="AF47">
+        <v>15</v>
+      </c>
+      <c r="AG47">
+        <v>16</v>
+      </c>
+      <c r="AH47">
+        <v>17</v>
+      </c>
+      <c r="AI47">
+        <v>18</v>
+      </c>
+      <c r="AJ47">
+        <v>19</v>
+      </c>
+      <c r="AK47">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="B48" s="142"/>
+      <c r="C48" s="216" t="s">
+        <v>263</v>
+      </c>
+      <c r="D48" s="226">
+        <v>-896.39549999999963</v>
+      </c>
+      <c r="E48" s="226">
+        <v>3.4400000000000013</v>
+      </c>
+      <c r="F48" s="217">
+        <v>3.4224152196421706E-3</v>
+      </c>
+      <c r="G48" s="217">
+        <v>2.4701030463189682E-3</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>284</v>
+      </c>
+      <c r="R48" s="223">
+        <v>12</v>
+      </c>
+      <c r="S48" s="223">
+        <f>R48*1.3</f>
+        <v>15.600000000000001</v>
+      </c>
+      <c r="T48" s="223">
+        <f t="shared" ref="T48:V48" si="7">S48*1.3</f>
+        <v>20.28</v>
+      </c>
+      <c r="U48" s="223">
+        <f t="shared" si="7"/>
+        <v>26.364000000000001</v>
+      </c>
+      <c r="V48" s="223">
+        <f t="shared" si="7"/>
+        <v>34.273200000000003</v>
+      </c>
+      <c r="W48" s="223">
+        <f>V48*1.5</f>
+        <v>51.409800000000004</v>
+      </c>
+      <c r="X48" s="223">
+        <f t="shared" ref="X48:Z48" si="8">W48*1.5</f>
+        <v>77.114699999999999</v>
+      </c>
+      <c r="Y48" s="223">
+        <f>X48*1.5</f>
+        <v>115.67205</v>
+      </c>
+      <c r="Z48" s="223">
+        <f>Y48*1.3</f>
+        <v>150.37366500000002</v>
+      </c>
+      <c r="AA48" s="223">
+        <f t="shared" ref="AA48:AD48" si="9">Z48*1.3</f>
+        <v>195.48576450000002</v>
+      </c>
+      <c r="AB48" s="223">
+        <f t="shared" si="9"/>
+        <v>254.13149385000003</v>
+      </c>
+      <c r="AC48" s="223">
+        <f t="shared" si="9"/>
+        <v>330.37094200500002</v>
+      </c>
+      <c r="AD48" s="223">
+        <f>AC48*1.1</f>
+        <v>363.40803620550003</v>
+      </c>
+      <c r="AE48" s="223">
+        <f>AD48*1.05</f>
+        <v>381.57843801577502</v>
+      </c>
+      <c r="AF48" s="223">
+        <f t="shared" ref="AF48:AK48" si="10">AE48*1.05</f>
+        <v>400.65735991656379</v>
+      </c>
+      <c r="AG48" s="223">
+        <f t="shared" si="10"/>
+        <v>420.690227912392</v>
+      </c>
+      <c r="AH48" s="223">
+        <f t="shared" si="10"/>
+        <v>441.72473930801164</v>
+      </c>
+      <c r="AI48" s="223">
+        <f t="shared" si="10"/>
+        <v>463.81097627341222</v>
+      </c>
+      <c r="AJ48" s="223">
+        <f t="shared" si="10"/>
+        <v>487.00152508708288</v>
+      </c>
+      <c r="AK48" s="223">
+        <f t="shared" si="10"/>
+        <v>511.35160134143706</v>
+      </c>
+    </row>
+    <row r="49" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="B49" s="142"/>
+      <c r="C49" s="216" t="s">
+        <v>264</v>
+      </c>
+      <c r="D49" s="226">
+        <v>395.15999999999985</v>
+      </c>
+      <c r="E49" s="226">
+        <v>25.430000000000007</v>
+      </c>
+      <c r="F49" s="217">
+        <v>1.7309936441942893E-2</v>
+      </c>
+      <c r="G49" s="217">
+        <v>1.5201505292682568E-2</v>
+      </c>
+      <c r="P49" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q49">
+        <f>SUM(R49:AK49)</f>
+        <v>3314.2419980641025</v>
+      </c>
+      <c r="R49">
+        <f>R48/(1+$S$45)^R47</f>
+        <v>11.707317073170733</v>
+      </c>
+      <c r="S49">
+        <f t="shared" ref="S49:AK49" si="11">S48/(1+$S$45)^S47</f>
+        <v>14.848304580606785</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="11"/>
+        <v>18.831996053452507</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="11"/>
+        <v>23.884482799500741</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="11"/>
+        <v>30.292514770098506</v>
+      </c>
+      <c r="W49">
+        <f t="shared" si="11"/>
+        <v>44.330509419656352</v>
+      </c>
+      <c r="X49">
+        <f t="shared" si="11"/>
+        <v>64.873916223887335</v>
+      </c>
+      <c r="Y49">
+        <f t="shared" si="11"/>
+        <v>94.937438376420502</v>
+      </c>
+      <c r="Z49">
+        <f t="shared" si="11"/>
+        <v>120.40845842863092</v>
+      </c>
+      <c r="AA49">
+        <f t="shared" si="11"/>
+        <v>152.71316678753189</v>
+      </c>
+      <c r="AB49">
+        <f t="shared" si="11"/>
+        <v>193.68499202321118</v>
+      </c>
+      <c r="AC49">
+        <f t="shared" si="11"/>
+        <v>245.64925817578006</v>
+      </c>
+      <c r="AD49">
+        <f t="shared" si="11"/>
+        <v>263.62359413986155</v>
+      </c>
+      <c r="AE49">
+        <f t="shared" si="11"/>
+        <v>270.05343789937035</v>
+      </c>
+      <c r="AF49">
+        <f t="shared" si="11"/>
+        <v>276.64010711642817</v>
+      </c>
+      <c r="AG49">
+        <f t="shared" si="11"/>
+        <v>283.38742680219474</v>
+      </c>
+      <c r="AH49">
+        <f t="shared" si="11"/>
+        <v>290.29931526078491</v>
+      </c>
+      <c r="AI49">
+        <f t="shared" si="11"/>
+        <v>297.37978636470649</v>
+      </c>
+      <c r="AJ49">
+        <f t="shared" si="11"/>
+        <v>304.6329518857969</v>
+      </c>
+      <c r="AK49">
+        <f t="shared" si="11"/>
+        <v>312.06302388301157</v>
+      </c>
+    </row>
+    <row r="50" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="B50" s="142"/>
+      <c r="C50" s="216" t="s">
+        <v>265</v>
+      </c>
+      <c r="D50" s="226">
+        <v>87.158500000000458</v>
+      </c>
+      <c r="E50" s="226">
+        <v>3.610000000000003</v>
+      </c>
+      <c r="F50" s="217">
+        <v>6.5368320174782144E-3</v>
+      </c>
+      <c r="G50" s="217">
+        <v>5.5602515572157436E-3</v>
+      </c>
+      <c r="P50" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q50">
+        <f>S44*S43+(1-S44)*(Q49+S43)</f>
+        <v>3261.8683317200857</v>
+      </c>
+    </row>
+    <row r="51" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="B51" s="142"/>
+      <c r="C51" s="216" t="s">
+        <v>266</v>
+      </c>
+      <c r="D51" s="226">
+        <v>348.3154999999997</v>
+      </c>
+      <c r="E51" s="226">
+        <v>4.4400000000000013</v>
+      </c>
+      <c r="F51" s="217">
+        <v>1.3013999989397965E-2</v>
+      </c>
+      <c r="G51" s="217">
+        <v>1.3132663512189825E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="B52" s="142"/>
+      <c r="C52" s="216" t="s">
+        <v>267</v>
+      </c>
+      <c r="D52" s="227">
+        <v>105.81999999999971</v>
+      </c>
+      <c r="E52" s="227">
+        <v>7</v>
+      </c>
+      <c r="F52" s="218">
+        <v>9.8994418480303267E-3</v>
+      </c>
+      <c r="G52" s="218">
+        <v>7.2807995417715522E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="2:37" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="142"/>
+      <c r="C53" s="219" t="s">
+        <v>247</v>
+      </c>
+      <c r="D53" s="228">
+        <v>-538.51849999999831</v>
+      </c>
+      <c r="E53" s="228">
+        <v>40.129999999999995</v>
+      </c>
+      <c r="F53" s="220">
+        <v>1.1632906132079162E-2</v>
+      </c>
+      <c r="G53" s="220">
+        <v>1.020837777832637E-2</v>
+      </c>
+      <c r="Q53">
+        <f>Q50-Q49</f>
+        <v>-52.373666344016783</v>
+      </c>
+      <c r="R53">
+        <v>500</v>
+      </c>
+      <c r="S53">
+        <v>600</v>
+      </c>
+      <c r="T53">
+        <v>700</v>
+      </c>
+      <c r="U53">
+        <v>800</v>
+      </c>
+      <c r="V53">
+        <v>900</v>
+      </c>
+      <c r="W53">
+        <v>1000</v>
+      </c>
+      <c r="X53">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="54" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="B54" s="142"/>
+      <c r="C54" s="222" t="s">
+        <v>268</v>
+      </c>
+      <c r="D54" s="226">
+        <v>389.32399999999961</v>
+      </c>
+      <c r="E54" s="226">
+        <v>32.86</v>
+      </c>
+      <c r="F54" s="217">
+        <v>7.3301772011612643E-2</v>
+      </c>
+      <c r="G54" s="217">
+        <v>6.8698582572500957E-2</v>
+      </c>
+      <c r="Q54" s="205">
+        <v>0.05</v>
+      </c>
+      <c r="R54" s="223">
+        <f t="dataTable" ref="R54:X64" dt2D="1" dtr="1" r1="S43" r2="S44"/>
+        <v>334.2879000967946</v>
+      </c>
+      <c r="S54" s="223">
+        <v>434.2879000967946</v>
+      </c>
+      <c r="T54" s="223">
+        <v>534.2879000967946</v>
+      </c>
+      <c r="U54" s="223">
+        <v>634.2879000967946</v>
+      </c>
+      <c r="V54" s="223">
+        <v>734.2879000967946</v>
+      </c>
+      <c r="W54" s="223">
+        <v>834.28790009679506</v>
+      </c>
+      <c r="X54" s="223">
+        <v>934.28790009679506</v>
+      </c>
+    </row>
+    <row r="55" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="B55" s="142"/>
+      <c r="C55" s="216" t="s">
+        <v>269</v>
+      </c>
+      <c r="D55" s="226">
+        <v>79.858452000000057</v>
+      </c>
+      <c r="E55" s="226">
+        <v>4.0750200000000021</v>
+      </c>
+      <c r="F55" s="217">
+        <v>2.535274933374718E-2</v>
+      </c>
+      <c r="G55" s="217">
+        <v>2.3001352262615418E-2</v>
+      </c>
+      <c r="Q55" s="205">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R55" s="223">
+        <v>268.00306013551244</v>
+      </c>
+      <c r="S55" s="223">
+        <v>368.00306013551244</v>
+      </c>
+      <c r="T55" s="223">
+        <v>468.00306013551244</v>
+      </c>
+      <c r="U55" s="223">
+        <v>568.00306013551244</v>
+      </c>
+      <c r="V55" s="223">
+        <v>668.00306013551244</v>
+      </c>
+      <c r="W55" s="223">
+        <v>768.00306013551244</v>
+      </c>
+      <c r="X55" s="223">
+        <v>868.0030601355129</v>
+      </c>
+    </row>
+    <row r="56" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="B56" s="142"/>
+      <c r="C56" s="216" t="s">
+        <v>270</v>
+      </c>
+      <c r="D56" s="226">
+        <v>10.147835999999984</v>
+      </c>
+      <c r="E56" s="226">
+        <v>-1.9524500000000002</v>
+      </c>
+      <c r="F56" s="217">
+        <v>5.8584340462425914E-3</v>
+      </c>
+      <c r="G56" s="217">
+        <v>1.0894253883239769E-2</v>
+      </c>
+      <c r="Q56" s="205">
+        <v>0.09</v>
+      </c>
+      <c r="R56" s="223">
+        <v>201.71822017423074</v>
+      </c>
+      <c r="S56" s="223">
+        <v>301.71822017423074</v>
+      </c>
+      <c r="T56" s="223">
+        <v>401.71822017423074</v>
+      </c>
+      <c r="U56" s="223">
+        <v>501.71822017423074</v>
+      </c>
+      <c r="V56" s="223">
+        <v>601.71822017423074</v>
+      </c>
+      <c r="W56" s="223">
+        <v>701.71822017423074</v>
+      </c>
+      <c r="X56" s="223">
+        <v>801.71822017423074</v>
+      </c>
+    </row>
+    <row r="57" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="B57" s="142"/>
+      <c r="C57" s="216" t="s">
+        <v>271</v>
+      </c>
+      <c r="D57" s="226">
+        <v>-370.25802799999997</v>
+      </c>
+      <c r="E57" s="226">
+        <v>14.223880000000008</v>
+      </c>
+      <c r="F57" s="217">
+        <v>0.11684341431843737</v>
+      </c>
+      <c r="G57" s="217">
+        <v>5.6314904287886013E-2</v>
+      </c>
+      <c r="Q57" s="205">
+        <v>0.11</v>
+      </c>
+      <c r="R57" s="223">
+        <v>135.43338021294858</v>
+      </c>
+      <c r="S57" s="223">
+        <v>235.43338021294858</v>
+      </c>
+      <c r="T57" s="223">
+        <v>335.43338021294858</v>
+      </c>
+      <c r="U57" s="223">
+        <v>435.43338021294858</v>
+      </c>
+      <c r="V57" s="223">
+        <v>535.43338021294858</v>
+      </c>
+      <c r="W57" s="223">
+        <v>635.43338021294858</v>
+      </c>
+      <c r="X57" s="223">
+        <v>735.43338021294858</v>
+      </c>
+    </row>
+    <row r="58" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="B58" s="142"/>
+      <c r="C58" s="216" t="s">
+        <v>272</v>
+      </c>
+      <c r="D58" s="226">
+        <v>81.508812000000006</v>
+      </c>
+      <c r="E58" s="226">
+        <v>6.7115900000000011</v>
+      </c>
+      <c r="F58" s="217">
+        <v>4.7185771306163006E-2</v>
+      </c>
+      <c r="G58" s="217">
+        <v>3.4386889855203322E-2</v>
+      </c>
+      <c r="Q58" s="205">
+        <v>0.13</v>
+      </c>
+      <c r="R58" s="223">
+        <v>69.148540251666873</v>
+      </c>
+      <c r="S58" s="223">
+        <v>169.14854025166687</v>
+      </c>
+      <c r="T58" s="223">
+        <v>269.14854025166687</v>
+      </c>
+      <c r="U58" s="223">
+        <v>369.14854025166687</v>
+      </c>
+      <c r="V58" s="223">
+        <v>469.14854025166687</v>
+      </c>
+      <c r="W58" s="223">
+        <v>569.14854025166687</v>
+      </c>
+      <c r="X58" s="223">
+        <v>669.14854025166687</v>
+      </c>
+    </row>
+    <row r="59" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="B59" s="142"/>
+      <c r="C59" s="216" t="s">
+        <v>273</v>
+      </c>
+      <c r="D59" s="226">
+        <v>74.52939600000002</v>
+      </c>
+      <c r="E59" s="226">
+        <v>0.25</v>
+      </c>
+      <c r="F59" s="217">
+        <v>8.2527478841007973E-3</v>
+      </c>
+      <c r="G59" s="217">
+        <v>9.9893331047012836E-3</v>
+      </c>
+      <c r="Q59" s="205">
+        <v>0.15</v>
+      </c>
+      <c r="R59" s="223">
+        <v>2.8637002903847133</v>
+      </c>
+      <c r="S59" s="223">
+        <v>102.86370029038471</v>
+      </c>
+      <c r="T59" s="223">
+        <v>202.86370029038471</v>
+      </c>
+      <c r="U59" s="223">
+        <v>302.86370029038471</v>
+      </c>
+      <c r="V59" s="223">
+        <v>402.86370029038471</v>
+      </c>
+      <c r="W59" s="223">
+        <v>502.86370029038471</v>
+      </c>
+      <c r="X59" s="223">
+        <v>602.86370029038471</v>
+      </c>
+    </row>
+    <row r="60" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="B60" s="142"/>
+      <c r="C60" s="216" t="s">
+        <v>274</v>
+      </c>
+      <c r="D60" s="227">
+        <v>0</v>
+      </c>
+      <c r="E60" s="227">
+        <v>10.281279999999999</v>
+      </c>
+      <c r="F60" s="218" t="s">
+        <v>249</v>
+      </c>
+      <c r="G60" s="218" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q60" s="205">
+        <v>0.17</v>
+      </c>
+      <c r="R60" s="223">
+        <v>-63.421139670897446</v>
+      </c>
+      <c r="S60" s="223">
+        <v>36.578860329102554</v>
+      </c>
+      <c r="T60" s="223">
+        <v>136.57886032910255</v>
+      </c>
+      <c r="U60" s="223">
+        <v>236.57886032910255</v>
+      </c>
+      <c r="V60" s="223">
+        <v>336.57886032910255</v>
+      </c>
+      <c r="W60" s="223">
+        <v>436.57886032910255</v>
+      </c>
+      <c r="X60" s="223">
+        <v>536.57886032910255</v>
+      </c>
+    </row>
+    <row r="61" spans="2:37" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="142"/>
+      <c r="C61" s="219" t="s">
+        <v>248</v>
+      </c>
+      <c r="D61" s="228">
+        <v>265.11046799999895</v>
+      </c>
+      <c r="E61" s="228">
+        <v>66.449320000000029</v>
+      </c>
+      <c r="F61" s="220">
+        <v>6.0305174099510563E-2</v>
+      </c>
+      <c r="G61" s="220">
+        <v>4.6265542965557994E-2</v>
+      </c>
+      <c r="Q61" s="205">
+        <v>0.19</v>
+      </c>
+      <c r="R61" s="223">
+        <v>-129.70597963217915</v>
+      </c>
+      <c r="S61" s="223">
+        <v>-29.705979632179151</v>
+      </c>
+      <c r="T61" s="223">
+        <v>70.294020367820849</v>
+      </c>
+      <c r="U61" s="223">
+        <v>170.29402036782085</v>
+      </c>
+      <c r="V61" s="223">
+        <v>270.29402036782085</v>
+      </c>
+      <c r="W61" s="223">
+        <v>370.29402036782085</v>
+      </c>
+      <c r="X61" s="223">
+        <v>470.29402036782085</v>
+      </c>
+    </row>
+    <row r="62" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="B62" s="142"/>
+      <c r="C62" s="222" t="s">
+        <v>275</v>
+      </c>
+      <c r="D62" s="226">
+        <v>-6.0275200000000062</v>
+      </c>
+      <c r="E62" s="226">
+        <v>0.65652999999999995</v>
+      </c>
+      <c r="F62" s="217">
+        <v>3.8149815152435936E-2</v>
+      </c>
+      <c r="G62" s="217">
+        <v>1.4586487589949473E-2</v>
+      </c>
+      <c r="Q62" s="205">
+        <v>0.21</v>
+      </c>
+      <c r="R62" s="223">
+        <v>-195.99081959346131</v>
+      </c>
+      <c r="S62" s="223">
+        <v>-95.99081959346131</v>
+      </c>
+      <c r="T62" s="223">
+        <v>4.0091804065386896</v>
+      </c>
+      <c r="U62" s="223">
+        <v>104.00918040653869</v>
+      </c>
+      <c r="V62" s="223">
+        <v>204.00918040653869</v>
+      </c>
+      <c r="W62" s="223">
+        <v>304.00918040653869</v>
+      </c>
+      <c r="X62" s="223">
+        <v>404.00918040653869</v>
+      </c>
+    </row>
+    <row r="63" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="B63" s="142"/>
+      <c r="C63" s="216" t="s">
+        <v>276</v>
+      </c>
+      <c r="D63" s="226">
+        <v>5.4623999999999953</v>
+      </c>
+      <c r="E63" s="226">
+        <v>0.28661999999999965</v>
+      </c>
+      <c r="F63" s="217">
+        <v>4.312125942972727E-2</v>
+      </c>
+      <c r="G63" s="217">
+        <v>4.2132221586287544E-2</v>
+      </c>
+      <c r="Q63" s="205">
+        <v>0.23</v>
+      </c>
+      <c r="R63" s="223">
+        <v>-262.27565955474347</v>
+      </c>
+      <c r="S63" s="223">
+        <v>-162.27565955474347</v>
+      </c>
+      <c r="T63" s="223">
+        <v>-62.27565955474347</v>
+      </c>
+      <c r="U63" s="223">
+        <v>37.72434044525653</v>
+      </c>
+      <c r="V63" s="223">
+        <v>137.72434044525653</v>
+      </c>
+      <c r="W63" s="223">
+        <v>237.72434044525653</v>
+      </c>
+      <c r="X63" s="223">
+        <v>337.72434044525653</v>
+      </c>
+    </row>
+    <row r="64" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="B64" s="142"/>
+      <c r="C64" s="216" t="s">
+        <v>277</v>
+      </c>
+      <c r="D64" s="226">
+        <v>-3.6</v>
+      </c>
+      <c r="E64" s="226">
+        <v>0</v>
+      </c>
+      <c r="F64" s="217" t="s">
+        <v>249</v>
+      </c>
+      <c r="G64" s="217" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q64" s="205">
+        <v>0.25</v>
+      </c>
+      <c r="R64" s="223">
+        <v>-328.56049951602563</v>
+      </c>
+      <c r="S64" s="223">
+        <v>-228.56049951602563</v>
+      </c>
+      <c r="T64" s="223">
+        <v>-128.56049951602563</v>
+      </c>
+      <c r="U64" s="223">
+        <v>-28.560499516025629</v>
+      </c>
+      <c r="V64" s="223">
+        <v>71.439500483974371</v>
+      </c>
+      <c r="W64" s="223">
+        <v>171.43950048397437</v>
+      </c>
+      <c r="X64" s="223">
+        <v>271.43950048397437</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B65" s="142"/>
+      <c r="C65" s="216" t="s">
+        <v>278</v>
+      </c>
+      <c r="D65" s="226">
+        <v>0</v>
+      </c>
+      <c r="E65" s="226">
+        <v>0</v>
+      </c>
+      <c r="F65" s="217" t="s">
+        <v>249</v>
+      </c>
+      <c r="G65" s="217" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B66" s="142"/>
+      <c r="C66" s="216" t="s">
+        <v>279</v>
+      </c>
+      <c r="D66" s="226">
+        <v>4.4865754241200015</v>
+      </c>
+      <c r="E66" s="226">
+        <v>0.52949999999999997</v>
+      </c>
+      <c r="F66" s="217">
+        <v>0.16623025760479529</v>
+      </c>
+      <c r="G66" s="217">
+        <v>0.34340286380851121</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="142"/>
+      <c r="C67" s="221" t="s">
+        <v>291</v>
+      </c>
+      <c r="D67" s="228">
+        <v>0.32145542411998917</v>
+      </c>
+      <c r="E67" s="228">
+        <v>1.4726499999999989</v>
+      </c>
+      <c r="F67" s="220">
+        <v>4.8900380613001004E-2</v>
+      </c>
+      <c r="G67" s="220">
+        <v>3.3414711098688023E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C68" s="221" t="s">
+        <v>280</v>
+      </c>
+      <c r="D68" s="229">
+        <v>-305.42657657588279</v>
+      </c>
+      <c r="E68" s="229">
+        <v>112.34196999999983</v>
+      </c>
+      <c r="F68" s="224">
+        <v>1.9591097828070593E-2</v>
+      </c>
+      <c r="G68" s="224">
+        <v>1.6428743039404076E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="R54:X64">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K38"/>
   <sheetViews>
@@ -5543,7 +8427,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5558,13 +8442,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AK72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N38" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="T48" sqref="T48:T72"/>
+    <sheetView showGridLines="0" topLeftCell="N38" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="U48" sqref="U48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -5597,14 +8481,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A1" s="194" t="s">
+      <c r="A1" s="192" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="194"/>
+      <c r="B1" s="192"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A2" s="194"/>
-      <c r="B2" s="194"/>
+      <c r="A2" s="192"/>
+      <c r="B2" s="192"/>
     </row>
     <row r="3" spans="1:27" ht="54" x14ac:dyDescent="0.4">
       <c r="A3" s="100" t="s">
@@ -5692,96 +8576,96 @@
       <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A10" s="191" t="s">
+      <c r="A10" s="199" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="191"/>
-      <c r="C10" s="191"/>
-      <c r="D10" s="191"/>
-      <c r="E10" s="191"/>
-      <c r="F10" s="191"/>
-      <c r="G10" s="191"/>
-      <c r="H10" s="191"/>
-      <c r="I10" s="191"/>
-      <c r="J10" s="191"/>
-      <c r="K10" s="191"/>
-      <c r="L10" s="191"/>
-      <c r="M10" s="191"/>
+      <c r="B10" s="199"/>
+      <c r="C10" s="199"/>
+      <c r="D10" s="199"/>
+      <c r="E10" s="199"/>
+      <c r="F10" s="199"/>
+      <c r="G10" s="199"/>
+      <c r="H10" s="199"/>
+      <c r="I10" s="199"/>
+      <c r="J10" s="199"/>
+      <c r="K10" s="199"/>
+      <c r="L10" s="199"/>
+      <c r="M10" s="199"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A11" s="191"/>
-      <c r="B11" s="191"/>
-      <c r="C11" s="191"/>
-      <c r="D11" s="191"/>
-      <c r="E11" s="191"/>
-      <c r="F11" s="191"/>
-      <c r="G11" s="191"/>
-      <c r="H11" s="191"/>
-      <c r="I11" s="191"/>
-      <c r="J11" s="191"/>
-      <c r="K11" s="191"/>
-      <c r="L11" s="191"/>
-      <c r="M11" s="191"/>
+      <c r="A11" s="199"/>
+      <c r="B11" s="199"/>
+      <c r="C11" s="199"/>
+      <c r="D11" s="199"/>
+      <c r="E11" s="199"/>
+      <c r="F11" s="199"/>
+      <c r="G11" s="199"/>
+      <c r="H11" s="199"/>
+      <c r="I11" s="199"/>
+      <c r="J11" s="199"/>
+      <c r="K11" s="199"/>
+      <c r="L11" s="199"/>
+      <c r="M11" s="199"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A12" s="191"/>
-      <c r="B12" s="191"/>
-      <c r="C12" s="191"/>
-      <c r="D12" s="191"/>
-      <c r="E12" s="191"/>
-      <c r="F12" s="191"/>
-      <c r="G12" s="191"/>
-      <c r="H12" s="191"/>
-      <c r="I12" s="191"/>
-      <c r="J12" s="191"/>
-      <c r="K12" s="191"/>
-      <c r="L12" s="191"/>
-      <c r="M12" s="191"/>
+      <c r="A12" s="199"/>
+      <c r="B12" s="199"/>
+      <c r="C12" s="199"/>
+      <c r="D12" s="199"/>
+      <c r="E12" s="199"/>
+      <c r="F12" s="199"/>
+      <c r="G12" s="199"/>
+      <c r="H12" s="199"/>
+      <c r="I12" s="199"/>
+      <c r="J12" s="199"/>
+      <c r="K12" s="199"/>
+      <c r="L12" s="199"/>
+      <c r="M12" s="199"/>
     </row>
     <row r="13" spans="1:27" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="191"/>
-      <c r="B13" s="191"/>
-      <c r="C13" s="191"/>
-      <c r="D13" s="191"/>
-      <c r="E13" s="191"/>
-      <c r="F13" s="191"/>
-      <c r="G13" s="191"/>
-      <c r="H13" s="191"/>
-      <c r="I13" s="191"/>
-      <c r="J13" s="191"/>
-      <c r="K13" s="191"/>
-      <c r="L13" s="191"/>
-      <c r="M13" s="191"/>
+      <c r="A13" s="199"/>
+      <c r="B13" s="199"/>
+      <c r="C13" s="199"/>
+      <c r="D13" s="199"/>
+      <c r="E13" s="199"/>
+      <c r="F13" s="199"/>
+      <c r="G13" s="199"/>
+      <c r="H13" s="199"/>
+      <c r="I13" s="199"/>
+      <c r="J13" s="199"/>
+      <c r="K13" s="199"/>
+      <c r="L13" s="199"/>
+      <c r="M13" s="199"/>
     </row>
     <row r="14" spans="1:27" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A14" s="76"/>
       <c r="B14" s="72"/>
       <c r="C14" s="72"/>
       <c r="D14" s="72"/>
-      <c r="E14" s="189" t="s">
+      <c r="E14" s="197" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="190"/>
-      <c r="G14" s="190"/>
-      <c r="H14" s="190"/>
-      <c r="I14" s="190"/>
+      <c r="F14" s="198"/>
+      <c r="G14" s="198"/>
+      <c r="H14" s="198"/>
+      <c r="I14" s="198"/>
       <c r="J14" s="96"/>
-      <c r="K14" s="192" t="s">
+      <c r="K14" s="200" t="s">
         <v>66</v>
       </c>
-      <c r="L14" s="190"/>
-      <c r="M14" s="190"/>
-      <c r="N14" s="190"/>
-      <c r="O14" s="193"/>
+      <c r="L14" s="198"/>
+      <c r="M14" s="198"/>
+      <c r="N14" s="198"/>
+      <c r="O14" s="201"/>
       <c r="P14" s="71"/>
       <c r="Q14" s="72"/>
       <c r="R14" s="71"/>
       <c r="S14" s="72"/>
       <c r="T14" s="73"/>
-      <c r="U14" s="185" t="s">
+      <c r="U14" s="193" t="s">
         <v>215</v>
       </c>
-      <c r="V14" s="187" t="s">
+      <c r="V14" s="195" t="s">
         <v>220</v>
       </c>
       <c r="W14" s="132"/>
@@ -5846,8 +8730,8 @@
       <c r="T15" s="126" t="s">
         <v>218</v>
       </c>
-      <c r="U15" s="186"/>
-      <c r="V15" s="188"/>
+      <c r="U15" s="194"/>
+      <c r="V15" s="196"/>
       <c r="W15" s="143" t="s">
         <v>219</v>
       </c>
@@ -6233,22 +9117,22 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Z19" s="198" t="s">
+      <c r="Z19" s="188" t="s">
         <v>230</v>
       </c>
-      <c r="AA19" s="200" t="s">
+      <c r="AA19" s="190" t="s">
         <v>231</v>
       </c>
-      <c r="AB19" s="195" t="s">
+      <c r="AB19" s="185" t="s">
         <v>232</v>
       </c>
-      <c r="AC19" s="196"/>
-      <c r="AD19" s="196"/>
-      <c r="AE19" s="196"/>
-      <c r="AF19" s="196"/>
-      <c r="AG19" s="196"/>
-      <c r="AH19" s="196"/>
-      <c r="AI19" s="197"/>
+      <c r="AC19" s="186"/>
+      <c r="AD19" s="186"/>
+      <c r="AE19" s="186"/>
+      <c r="AF19" s="186"/>
+      <c r="AG19" s="186"/>
+      <c r="AH19" s="186"/>
+      <c r="AI19" s="187"/>
     </row>
     <row r="20" spans="1:37" ht="14.65" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="174"/>
@@ -6342,8 +9226,8 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Z20" s="199"/>
-      <c r="AA20" s="201"/>
+      <c r="Z20" s="189"/>
+      <c r="AA20" s="191"/>
       <c r="AB20" s="159">
         <v>0.05</v>
       </c>
@@ -10614,23 +13498,23 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="AB19:AI19"/>
-    <mergeCell ref="Z19:Z20"/>
-    <mergeCell ref="AA19:AA20"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A20"/>
     <mergeCell ref="A21:A28"/>
     <mergeCell ref="A29:A35"/>
     <mergeCell ref="A36:A40"/>
     <mergeCell ref="U14:U15"/>
     <mergeCell ref="V14:V15"/>
     <mergeCell ref="E14:I14"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="AB19:AI19"/>
+    <mergeCell ref="Z19:Z20"/>
+    <mergeCell ref="AA19:AA20"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A20"/>
     <mergeCell ref="A10:M13"/>
-    <mergeCell ref="K14:O14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="AB21:AI25">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10642,7 +13526,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W71"/>
